--- a/Test Monitoring Indihome.xlsx
+++ b/Test Monitoring Indihome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="143">
   <si>
     <t xml:space="preserve">TEST SCENARIO </t>
   </si>
@@ -102,10 +102,10 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>TC_user_01</t>
-  </si>
-  <si>
-    <t>validasi user berhasil</t>
+    <t>TC_login_01</t>
+  </si>
+  <si>
+    <t>login berhasil</t>
   </si>
   <si>
     <t>1. klik button "masuk"</t>
@@ -126,30 +126,48 @@
     <t>4. klik button "Log in"</t>
   </si>
   <si>
-    <t>TC_user_02</t>
+    <t>TC_login_02</t>
   </si>
   <si>
     <t>no.hp = 081519915643</t>
   </si>
   <si>
-    <t>TC_user_03</t>
-  </si>
-  <si>
-    <t>validasi user gagal</t>
+    <t>TC_login_03</t>
+  </si>
+  <si>
+    <t>3. klik button "Log in"</t>
+  </si>
+  <si>
+    <t>TC_login_04</t>
+  </si>
+  <si>
+    <t>login gagal</t>
   </si>
   <si>
     <t>muncul alert Pastikan akun myIndiHome yang anda masukan sudah terdaftar</t>
   </si>
   <si>
-    <t>email = fadhila</t>
-  </si>
-  <si>
-    <t>TC_user_04</t>
+    <t>email = fadhila@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_login_05</t>
+  </si>
+  <si>
+    <t>muncul alert Pastikan format email / no. hp yang anda masukkan sudah benar</t>
   </si>
   <si>
     <t>no.hp = Q123</t>
   </si>
   <si>
+    <t>TC_login_06</t>
+  </si>
+  <si>
+    <t>data email / no.hp tidak tersimpan dan muncul alert Pastikan format email / no. hp yang anda masukkan sudah benar</t>
+  </si>
+  <si>
+    <t>email = fadhilaqa20</t>
+  </si>
+  <si>
     <t>TC_ck_01</t>
   </si>
   <si>
@@ -226,20 +244,20 @@
   </si>
   <si>
     <t xml:space="preserve">Email =
-indahdhila@student.telkomuniversity.ac.id
+g.e.n.e.r.a.tor@gmail.com
 </t>
   </si>
   <si>
     <t>3. Masukkan data pada elemen "Nama"</t>
   </si>
   <si>
-    <t>Nama = Indah Faradhila Putri</t>
+    <t>Nama = Indah Dhila</t>
   </si>
   <si>
     <t>4. Masukkan data pada elemen " Nomor HP"</t>
   </si>
   <si>
-    <t>Nomor HP = 085781155612</t>
+    <t>Nomor HP = 0838555713</t>
   </si>
   <si>
     <t>5. Pilih data pada elemen " Jenis Kelamin"</t>
@@ -282,6 +300,9 @@
 indahfaradhila@gmail.com</t>
   </si>
   <si>
+    <t>Nama = Indah Faradhila Putri</t>
+  </si>
+  <si>
     <t>Nomor HP = 081381067334</t>
   </si>
   <si>
@@ -348,7 +369,7 @@
     <t>Validasi fitur "Log in" sebagai user</t>
   </si>
   <si>
-    <t>Validasi user berhasil</t>
+    <t>Login berhasil</t>
   </si>
   <si>
     <t>15/12/2020</t>
@@ -360,12 +381,25 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Validasi user gagal</t>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>Login gagal</t>
   </si>
   <si>
     <t>Muncul alert Pastikan akun myIndiHome yang anda masukan sudah terdaftar</t>
   </si>
   <si>
+    <t xml:space="preserve">Muncul alert Pastikan format email / no. hp yang anda masukkan sudah benar
+</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Data email / no.hp tidak tersimpan dan muncul alert Pastikan format email / no. hp yang anda masukkan sudah benar</t>
+  </si>
+  <si>
     <t>FR-02 : REGISTRASI</t>
   </si>
   <si>
@@ -375,6 +409,15 @@
     <t>17/12/2020</t>
   </si>
   <si>
+    <t>Muncul Alert "Verifikasi Akun"</t>
+  </si>
+  <si>
+    <t>TC_RegisterIndihome_05</t>
+  </si>
+  <si>
+    <t>Muncul Alert Gagal "Connection Error [-1]"</t>
+  </si>
+  <si>
     <t>FR-03 : CEK KETERSEDIAAN</t>
   </si>
   <si>
@@ -396,10 +439,13 @@
     <t>19/12/2020</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Untuk data TC_ck_02 seharusnya tidak tersedia layanan karena alamat yang dimasukkan tidak ada di kota tersebut.</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>Sepertinya tidak ada masalah dengan fungsi cek ketersediaan dalam situs namun mengaksesnya harus dengan internet kecepatan tinggi. Pada tanggal 19 Desember saya menggunakan internet dengan kecepatan up to 10MBps dan beberapa kali terdapat skenario yang gagal, namun pada tanggal 22 Desember saya menggunakan internet dengan kecepatan up to 100MBps dan semua skenario sukses.</t>
   </si>
 </sst>
 </file>
@@ -472,6 +518,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -488,12 +539,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -503,7 +551,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFEA4335"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -556,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border/>
     <border>
       <bottom style="thin">
@@ -639,11 +690,51 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -804,6 +895,14 @@
     <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -828,11 +927,8 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -871,22 +967,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="9" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -907,7 +1003,7 @@
     <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -922,72 +1018,81 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="10" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1565,7 +1670,7 @@
       <c r="D22" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="35"/>
     </row>
     <row r="23">
@@ -1574,14 +1679,14 @@
         <v>39</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="49" t="s">
-        <v>41</v>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -1589,8 +1694,8 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="24"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25">
       <c r="A25" s="24"/>
@@ -1599,53 +1704,55 @@
       <c r="D25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" ht="29.25" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="24"/>
+      <c r="B27" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" ht="29.25" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="35"/>
+      <c r="D27" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="49" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="24"/>
-      <c r="B28" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="49" t="s">
-        <v>41</v>
-      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="F29" s="24"/>
     </row>
     <row r="30">
@@ -1653,61 +1760,55 @@
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E30" s="46"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31">
       <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="55"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="35"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="49" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="F34" s="24"/>
     </row>
     <row r="35">
@@ -1715,91 +1816,95 @@
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E35" s="55"/>
       <c r="F35" s="24"/>
     </row>
     <row r="36">
       <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="24"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37">
       <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="B37" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="24"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39">
       <c r="A39" s="24"/>
-      <c r="B39" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" ht="43.5" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="51" t="s">
+      <c r="A41" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>60</v>
-      </c>
+      <c r="D42" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="24"/>
       <c r="F42" s="24"/>
     </row>
     <row r="43">
@@ -1807,69 +1912,69 @@
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="E43" s="35"/>
       <c r="F43" s="24"/>
     </row>
     <row r="44">
       <c r="A44" s="24"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="24"/>
     </row>
     <row r="45">
       <c r="A45" s="24"/>
-      <c r="B45" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="49" t="s">
-        <v>59</v>
-      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46">
       <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47">
       <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="24"/>
+      <c r="B47" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
-      <c r="D48" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>60</v>
-      </c>
+      <c r="D48" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="24"/>
       <c r="F48" s="24"/>
     </row>
     <row r="49">
@@ -1877,85 +1982,79 @@
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="E49" s="35"/>
       <c r="F49" s="24"/>
     </row>
     <row r="50">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="24"/>
     </row>
     <row r="51">
-      <c r="A51" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64" t="s">
-        <v>68</v>
-      </c>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52">
       <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="24"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53">
       <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="24"/>
+      <c r="B53" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
-      <c r="D54" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>74</v>
-      </c>
+      <c r="D54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>76</v>
-      </c>
+      <c r="D55" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="35"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56">
@@ -1963,10 +2062,10 @@
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="F56" s="24"/>
     </row>
@@ -1974,69 +2073,73 @@
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
-      <c r="D57" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>80</v>
-      </c>
+      <c r="D57" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="24"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="24"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
     </row>
     <row r="59">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="24"/>
+      <c r="A59" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="68" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="24"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="35"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="24"/>
     </row>
     <row r="61">
       <c r="A61" s="24"/>
-      <c r="B61" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="64" t="s">
-        <v>86</v>
-      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="24"/>
     </row>
     <row r="62">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
-      <c r="D62" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="63" t="s">
-        <v>87</v>
+      <c r="D62" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="F62" s="24"/>
     </row>
@@ -2044,11 +2147,11 @@
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="63" t="s">
-        <v>72</v>
+      <c r="D63" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F63" s="24"/>
     </row>
@@ -2056,11 +2159,11 @@
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>88</v>
+      <c r="D64" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="F64" s="24"/>
     </row>
@@ -2068,11 +2171,11 @@
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>76</v>
+      <c r="D65" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="F65" s="24"/>
     </row>
@@ -2080,81 +2183,81 @@
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
-      <c r="D66" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="63" t="s">
-        <v>78</v>
-      </c>
+      <c r="D66" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="54"/>
       <c r="F66" s="24"/>
     </row>
     <row r="67">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="63" t="s">
-        <v>80</v>
-      </c>
+      <c r="D67" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="54"/>
       <c r="F67" s="24"/>
     </row>
     <row r="68">
       <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="62" t="s">
-        <v>81</v>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="66" t="s">
+        <v>89</v>
       </c>
       <c r="E68" s="54"/>
-      <c r="F68" s="24"/>
+      <c r="F68" s="35"/>
     </row>
     <row r="69">
       <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="62" t="s">
-        <v>82</v>
+      <c r="B69" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="E69" s="54"/>
-      <c r="F69" s="24"/>
+      <c r="F69" s="68" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="24"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="54"/>
-      <c r="F70" s="35"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="24"/>
     </row>
     <row r="71">
       <c r="A71" s="24"/>
-      <c r="B71" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="64" t="s">
-        <v>92</v>
-      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="24"/>
     </row>
     <row r="72">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="63" t="s">
-        <v>70</v>
+      <c r="D72" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="F72" s="24"/>
     </row>
@@ -2162,11 +2265,11 @@
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="63" t="s">
-        <v>72</v>
+      <c r="D73" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F73" s="24"/>
     </row>
@@ -2174,11 +2277,11 @@
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="63" t="s">
-        <v>74</v>
+      <c r="D74" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="F74" s="24"/>
     </row>
@@ -2186,11 +2289,11 @@
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
-      <c r="D75" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="63" t="s">
-        <v>76</v>
+      <c r="D75" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="F75" s="24"/>
     </row>
@@ -2198,81 +2301,81 @@
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
-      <c r="D76" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="63" t="s">
-        <v>78</v>
-      </c>
+      <c r="D76" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="54"/>
       <c r="F76" s="24"/>
     </row>
     <row r="77">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>80</v>
-      </c>
+      <c r="D77" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="54"/>
       <c r="F77" s="24"/>
     </row>
     <row r="78">
       <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="62" t="s">
-        <v>81</v>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="E78" s="54"/>
-      <c r="F78" s="24"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79">
       <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="62" t="s">
-        <v>82</v>
+      <c r="B79" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="E79" s="54"/>
-      <c r="F79" s="24"/>
+      <c r="F79" s="68" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="24"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="54"/>
-      <c r="F80" s="35"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="24"/>
     </row>
     <row r="81">
       <c r="A81" s="24"/>
-      <c r="B81" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="64" t="s">
-        <v>95</v>
-      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="24"/>
     </row>
     <row r="82">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
-      <c r="D82" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="63" t="s">
-        <v>70</v>
+      <c r="D82" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="F82" s="24"/>
     </row>
@@ -2280,11 +2383,11 @@
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
-      <c r="D83" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="63" t="s">
-        <v>72</v>
+      <c r="D83" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F83" s="24"/>
     </row>
@@ -2292,11 +2395,11 @@
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
-      <c r="D84" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="63" t="s">
-        <v>74</v>
+      <c r="D84" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="F84" s="24"/>
     </row>
@@ -2304,11 +2407,11 @@
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
-      <c r="D85" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>76</v>
+      <c r="D85" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="F85" s="24"/>
     </row>
@@ -2316,4506 +2419,4608 @@
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
-      <c r="D86" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>78</v>
-      </c>
+      <c r="D86" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="54"/>
       <c r="F86" s="24"/>
     </row>
     <row r="87">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
-      <c r="D87" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" s="63" t="s">
-        <v>96</v>
-      </c>
+      <c r="D87" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="54"/>
       <c r="F87" s="24"/>
     </row>
     <row r="88">
-      <c r="A88" s="35"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="62" t="s">
-        <v>97</v>
+      <c r="D88" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="E88" s="54"/>
       <c r="F88" s="35"/>
     </row>
     <row r="89">
-      <c r="D89" s="67"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="68"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="54"/>
+      <c r="F89" s="68" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="90">
-      <c r="D90" s="67"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="68"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="24"/>
     </row>
     <row r="91">
-      <c r="D91" s="14"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="68"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="24"/>
     </row>
     <row r="92">
-      <c r="D92" s="14"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="68"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="24"/>
     </row>
     <row r="93">
-      <c r="D93" s="14"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="68"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="24"/>
     </row>
     <row r="94">
-      <c r="D94" s="14"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="68"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="24"/>
     </row>
     <row r="95">
-      <c r="D95" s="14"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="68"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="24"/>
     </row>
     <row r="96">
-      <c r="D96" s="14"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="68"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="35"/>
     </row>
     <row r="97">
-      <c r="D97" s="14"/>
+      <c r="D97" s="70"/>
       <c r="E97" s="48"/>
-      <c r="F97" s="68"/>
+      <c r="F97" s="71"/>
     </row>
     <row r="98">
-      <c r="D98" s="14"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="48"/>
-      <c r="F98" s="68"/>
+      <c r="F98" s="71"/>
     </row>
     <row r="99">
       <c r="D99" s="14"/>
       <c r="E99" s="48"/>
-      <c r="F99" s="68"/>
+      <c r="F99" s="71"/>
     </row>
     <row r="100">
       <c r="D100" s="14"/>
       <c r="E100" s="48"/>
-      <c r="F100" s="68"/>
+      <c r="F100" s="71"/>
     </row>
     <row r="101">
       <c r="D101" s="14"/>
       <c r="E101" s="48"/>
-      <c r="F101" s="68"/>
+      <c r="F101" s="71"/>
     </row>
     <row r="102">
       <c r="D102" s="14"/>
       <c r="E102" s="48"/>
-      <c r="F102" s="68"/>
+      <c r="F102" s="71"/>
     </row>
     <row r="103">
       <c r="D103" s="14"/>
       <c r="E103" s="48"/>
-      <c r="F103" s="68"/>
+      <c r="F103" s="71"/>
     </row>
     <row r="104">
       <c r="D104" s="14"/>
       <c r="E104" s="48"/>
-      <c r="F104" s="68"/>
+      <c r="F104" s="71"/>
     </row>
     <row r="105">
       <c r="D105" s="14"/>
       <c r="E105" s="48"/>
-      <c r="F105" s="68"/>
+      <c r="F105" s="71"/>
     </row>
     <row r="106">
       <c r="D106" s="14"/>
       <c r="E106" s="48"/>
-      <c r="F106" s="68"/>
+      <c r="F106" s="71"/>
     </row>
     <row r="107">
       <c r="D107" s="14"/>
       <c r="E107" s="48"/>
-      <c r="F107" s="68"/>
+      <c r="F107" s="71"/>
     </row>
     <row r="108">
       <c r="D108" s="14"/>
       <c r="E108" s="48"/>
-      <c r="F108" s="68"/>
+      <c r="F108" s="71"/>
     </row>
     <row r="109">
       <c r="D109" s="14"/>
       <c r="E109" s="48"/>
-      <c r="F109" s="68"/>
+      <c r="F109" s="71"/>
     </row>
     <row r="110">
       <c r="D110" s="14"/>
       <c r="E110" s="48"/>
-      <c r="F110" s="68"/>
+      <c r="F110" s="71"/>
     </row>
     <row r="111">
       <c r="D111" s="14"/>
       <c r="E111" s="48"/>
-      <c r="F111" s="68"/>
+      <c r="F111" s="71"/>
     </row>
     <row r="112">
       <c r="D112" s="14"/>
       <c r="E112" s="48"/>
-      <c r="F112" s="68"/>
+      <c r="F112" s="71"/>
     </row>
     <row r="113">
       <c r="D113" s="14"/>
       <c r="E113" s="48"/>
-      <c r="F113" s="68"/>
+      <c r="F113" s="71"/>
     </row>
     <row r="114">
       <c r="D114" s="14"/>
       <c r="E114" s="48"/>
-      <c r="F114" s="68"/>
+      <c r="F114" s="71"/>
     </row>
     <row r="115">
       <c r="D115" s="14"/>
       <c r="E115" s="48"/>
-      <c r="F115" s="68"/>
+      <c r="F115" s="71"/>
     </row>
     <row r="116">
       <c r="D116" s="14"/>
       <c r="E116" s="48"/>
-      <c r="F116" s="68"/>
+      <c r="F116" s="71"/>
     </row>
     <row r="117">
       <c r="D117" s="14"/>
       <c r="E117" s="48"/>
-      <c r="F117" s="68"/>
+      <c r="F117" s="71"/>
     </row>
     <row r="118">
       <c r="D118" s="14"/>
       <c r="E118" s="48"/>
-      <c r="F118" s="68"/>
+      <c r="F118" s="71"/>
     </row>
     <row r="119">
       <c r="D119" s="14"/>
       <c r="E119" s="48"/>
-      <c r="F119" s="68"/>
+      <c r="F119" s="71"/>
     </row>
     <row r="120">
       <c r="D120" s="14"/>
       <c r="E120" s="48"/>
-      <c r="F120" s="68"/>
+      <c r="F120" s="71"/>
     </row>
     <row r="121">
       <c r="D121" s="14"/>
       <c r="E121" s="48"/>
-      <c r="F121" s="68"/>
+      <c r="F121" s="71"/>
     </row>
     <row r="122">
       <c r="D122" s="14"/>
       <c r="E122" s="48"/>
-      <c r="F122" s="68"/>
+      <c r="F122" s="71"/>
     </row>
     <row r="123">
       <c r="D123" s="14"/>
       <c r="E123" s="48"/>
-      <c r="F123" s="68"/>
+      <c r="F123" s="71"/>
     </row>
     <row r="124">
       <c r="D124" s="14"/>
       <c r="E124" s="48"/>
-      <c r="F124" s="68"/>
+      <c r="F124" s="71"/>
     </row>
     <row r="125">
       <c r="D125" s="14"/>
       <c r="E125" s="48"/>
-      <c r="F125" s="68"/>
+      <c r="F125" s="71"/>
     </row>
     <row r="126">
       <c r="D126" s="14"/>
       <c r="E126" s="48"/>
-      <c r="F126" s="68"/>
+      <c r="F126" s="71"/>
     </row>
     <row r="127">
       <c r="D127" s="14"/>
       <c r="E127" s="48"/>
-      <c r="F127" s="68"/>
+      <c r="F127" s="71"/>
     </row>
     <row r="128">
       <c r="D128" s="14"/>
       <c r="E128" s="48"/>
-      <c r="F128" s="68"/>
+      <c r="F128" s="71"/>
     </row>
     <row r="129">
       <c r="D129" s="14"/>
       <c r="E129" s="48"/>
-      <c r="F129" s="68"/>
+      <c r="F129" s="71"/>
     </row>
     <row r="130">
       <c r="D130" s="14"/>
       <c r="E130" s="48"/>
-      <c r="F130" s="68"/>
+      <c r="F130" s="71"/>
     </row>
     <row r="131">
       <c r="D131" s="14"/>
       <c r="E131" s="48"/>
-      <c r="F131" s="68"/>
+      <c r="F131" s="71"/>
     </row>
     <row r="132">
       <c r="D132" s="14"/>
       <c r="E132" s="48"/>
-      <c r="F132" s="68"/>
+      <c r="F132" s="71"/>
     </row>
     <row r="133">
       <c r="D133" s="14"/>
       <c r="E133" s="48"/>
-      <c r="F133" s="68"/>
+      <c r="F133" s="71"/>
     </row>
     <row r="134">
       <c r="D134" s="14"/>
       <c r="E134" s="48"/>
-      <c r="F134" s="68"/>
+      <c r="F134" s="71"/>
     </row>
     <row r="135">
       <c r="D135" s="14"/>
       <c r="E135" s="48"/>
-      <c r="F135" s="68"/>
+      <c r="F135" s="71"/>
     </row>
     <row r="136">
       <c r="D136" s="14"/>
       <c r="E136" s="48"/>
-      <c r="F136" s="68"/>
+      <c r="F136" s="71"/>
     </row>
     <row r="137">
       <c r="D137" s="14"/>
       <c r="E137" s="48"/>
-      <c r="F137" s="68"/>
+      <c r="F137" s="71"/>
     </row>
     <row r="138">
       <c r="D138" s="14"/>
       <c r="E138" s="48"/>
-      <c r="F138" s="68"/>
+      <c r="F138" s="71"/>
     </row>
     <row r="139">
       <c r="D139" s="14"/>
       <c r="E139" s="48"/>
-      <c r="F139" s="68"/>
+      <c r="F139" s="71"/>
     </row>
     <row r="140">
       <c r="D140" s="14"/>
       <c r="E140" s="48"/>
-      <c r="F140" s="68"/>
+      <c r="F140" s="71"/>
     </row>
     <row r="141">
       <c r="D141" s="14"/>
       <c r="E141" s="48"/>
-      <c r="F141" s="68"/>
+      <c r="F141" s="71"/>
     </row>
     <row r="142">
       <c r="D142" s="14"/>
       <c r="E142" s="48"/>
-      <c r="F142" s="68"/>
+      <c r="F142" s="71"/>
     </row>
     <row r="143">
       <c r="D143" s="14"/>
       <c r="E143" s="48"/>
-      <c r="F143" s="68"/>
+      <c r="F143" s="71"/>
     </row>
     <row r="144">
       <c r="D144" s="14"/>
       <c r="E144" s="48"/>
-      <c r="F144" s="68"/>
+      <c r="F144" s="71"/>
     </row>
     <row r="145">
       <c r="D145" s="14"/>
       <c r="E145" s="48"/>
-      <c r="F145" s="68"/>
+      <c r="F145" s="71"/>
     </row>
     <row r="146">
       <c r="D146" s="14"/>
       <c r="E146" s="48"/>
-      <c r="F146" s="68"/>
+      <c r="F146" s="71"/>
     </row>
     <row r="147">
       <c r="D147" s="14"/>
       <c r="E147" s="48"/>
-      <c r="F147" s="68"/>
+      <c r="F147" s="71"/>
     </row>
     <row r="148">
       <c r="D148" s="14"/>
       <c r="E148" s="48"/>
-      <c r="F148" s="68"/>
+      <c r="F148" s="71"/>
     </row>
     <row r="149">
       <c r="D149" s="14"/>
       <c r="E149" s="48"/>
-      <c r="F149" s="68"/>
+      <c r="F149" s="71"/>
     </row>
     <row r="150">
       <c r="D150" s="14"/>
       <c r="E150" s="48"/>
-      <c r="F150" s="68"/>
+      <c r="F150" s="71"/>
     </row>
     <row r="151">
       <c r="D151" s="14"/>
       <c r="E151" s="48"/>
-      <c r="F151" s="68"/>
+      <c r="F151" s="71"/>
     </row>
     <row r="152">
       <c r="D152" s="14"/>
       <c r="E152" s="48"/>
-      <c r="F152" s="68"/>
+      <c r="F152" s="71"/>
     </row>
     <row r="153">
       <c r="D153" s="14"/>
       <c r="E153" s="48"/>
-      <c r="F153" s="68"/>
+      <c r="F153" s="71"/>
     </row>
     <row r="154">
       <c r="D154" s="14"/>
       <c r="E154" s="48"/>
-      <c r="F154" s="68"/>
+      <c r="F154" s="71"/>
     </row>
     <row r="155">
       <c r="D155" s="14"/>
       <c r="E155" s="48"/>
-      <c r="F155" s="68"/>
+      <c r="F155" s="71"/>
     </row>
     <row r="156">
       <c r="D156" s="14"/>
       <c r="E156" s="48"/>
-      <c r="F156" s="68"/>
+      <c r="F156" s="71"/>
     </row>
     <row r="157">
       <c r="D157" s="14"/>
       <c r="E157" s="48"/>
-      <c r="F157" s="68"/>
+      <c r="F157" s="71"/>
     </row>
     <row r="158">
       <c r="D158" s="14"/>
       <c r="E158" s="48"/>
-      <c r="F158" s="68"/>
+      <c r="F158" s="71"/>
     </row>
     <row r="159">
       <c r="D159" s="14"/>
       <c r="E159" s="48"/>
-      <c r="F159" s="68"/>
+      <c r="F159" s="71"/>
     </row>
     <row r="160">
       <c r="D160" s="14"/>
       <c r="E160" s="48"/>
-      <c r="F160" s="68"/>
+      <c r="F160" s="71"/>
     </row>
     <row r="161">
       <c r="D161" s="14"/>
       <c r="E161" s="48"/>
-      <c r="F161" s="68"/>
+      <c r="F161" s="71"/>
     </row>
     <row r="162">
       <c r="D162" s="14"/>
       <c r="E162" s="48"/>
-      <c r="F162" s="68"/>
+      <c r="F162" s="71"/>
     </row>
     <row r="163">
       <c r="D163" s="14"/>
       <c r="E163" s="48"/>
-      <c r="F163" s="68"/>
+      <c r="F163" s="71"/>
     </row>
     <row r="164">
       <c r="D164" s="14"/>
       <c r="E164" s="48"/>
-      <c r="F164" s="68"/>
+      <c r="F164" s="71"/>
     </row>
     <row r="165">
       <c r="D165" s="14"/>
       <c r="E165" s="48"/>
-      <c r="F165" s="68"/>
+      <c r="F165" s="71"/>
     </row>
     <row r="166">
       <c r="D166" s="14"/>
       <c r="E166" s="48"/>
-      <c r="F166" s="68"/>
+      <c r="F166" s="71"/>
     </row>
     <row r="167">
       <c r="D167" s="14"/>
       <c r="E167" s="48"/>
-      <c r="F167" s="68"/>
+      <c r="F167" s="71"/>
     </row>
     <row r="168">
       <c r="D168" s="14"/>
       <c r="E168" s="48"/>
-      <c r="F168" s="68"/>
+      <c r="F168" s="71"/>
     </row>
     <row r="169">
       <c r="D169" s="14"/>
       <c r="E169" s="48"/>
-      <c r="F169" s="68"/>
+      <c r="F169" s="71"/>
     </row>
     <row r="170">
       <c r="D170" s="14"/>
       <c r="E170" s="48"/>
-      <c r="F170" s="68"/>
+      <c r="F170" s="71"/>
     </row>
     <row r="171">
       <c r="D171" s="14"/>
       <c r="E171" s="48"/>
-      <c r="F171" s="68"/>
+      <c r="F171" s="71"/>
     </row>
     <row r="172">
       <c r="D172" s="14"/>
       <c r="E172" s="48"/>
-      <c r="F172" s="68"/>
+      <c r="F172" s="71"/>
     </row>
     <row r="173">
       <c r="D173" s="14"/>
       <c r="E173" s="48"/>
-      <c r="F173" s="68"/>
+      <c r="F173" s="71"/>
     </row>
     <row r="174">
       <c r="D174" s="14"/>
       <c r="E174" s="48"/>
-      <c r="F174" s="68"/>
+      <c r="F174" s="71"/>
     </row>
     <row r="175">
       <c r="D175" s="14"/>
       <c r="E175" s="48"/>
-      <c r="F175" s="68"/>
+      <c r="F175" s="71"/>
     </row>
     <row r="176">
       <c r="D176" s="14"/>
       <c r="E176" s="48"/>
-      <c r="F176" s="68"/>
+      <c r="F176" s="71"/>
     </row>
     <row r="177">
       <c r="D177" s="14"/>
       <c r="E177" s="48"/>
-      <c r="F177" s="68"/>
+      <c r="F177" s="71"/>
     </row>
     <row r="178">
       <c r="D178" s="14"/>
       <c r="E178" s="48"/>
-      <c r="F178" s="68"/>
+      <c r="F178" s="71"/>
     </row>
     <row r="179">
       <c r="D179" s="14"/>
       <c r="E179" s="48"/>
-      <c r="F179" s="68"/>
+      <c r="F179" s="71"/>
     </row>
     <row r="180">
       <c r="D180" s="14"/>
       <c r="E180" s="48"/>
-      <c r="F180" s="68"/>
+      <c r="F180" s="71"/>
     </row>
     <row r="181">
       <c r="D181" s="14"/>
       <c r="E181" s="48"/>
-      <c r="F181" s="68"/>
+      <c r="F181" s="71"/>
     </row>
     <row r="182">
       <c r="D182" s="14"/>
       <c r="E182" s="48"/>
-      <c r="F182" s="68"/>
+      <c r="F182" s="71"/>
     </row>
     <row r="183">
       <c r="D183" s="14"/>
       <c r="E183" s="48"/>
-      <c r="F183" s="68"/>
+      <c r="F183" s="71"/>
     </row>
     <row r="184">
       <c r="D184" s="14"/>
       <c r="E184" s="48"/>
-      <c r="F184" s="68"/>
+      <c r="F184" s="71"/>
     </row>
     <row r="185">
       <c r="D185" s="14"/>
       <c r="E185" s="48"/>
-      <c r="F185" s="68"/>
+      <c r="F185" s="71"/>
     </row>
     <row r="186">
       <c r="D186" s="14"/>
       <c r="E186" s="48"/>
-      <c r="F186" s="68"/>
+      <c r="F186" s="71"/>
     </row>
     <row r="187">
       <c r="D187" s="14"/>
       <c r="E187" s="48"/>
-      <c r="F187" s="68"/>
+      <c r="F187" s="71"/>
     </row>
     <row r="188">
       <c r="D188" s="14"/>
       <c r="E188" s="48"/>
-      <c r="F188" s="68"/>
+      <c r="F188" s="71"/>
     </row>
     <row r="189">
       <c r="D189" s="14"/>
       <c r="E189" s="48"/>
-      <c r="F189" s="68"/>
+      <c r="F189" s="71"/>
     </row>
     <row r="190">
       <c r="D190" s="14"/>
       <c r="E190" s="48"/>
-      <c r="F190" s="68"/>
+      <c r="F190" s="71"/>
     </row>
     <row r="191">
       <c r="D191" s="14"/>
       <c r="E191" s="48"/>
-      <c r="F191" s="68"/>
+      <c r="F191" s="71"/>
     </row>
     <row r="192">
       <c r="D192" s="14"/>
       <c r="E192" s="48"/>
-      <c r="F192" s="68"/>
+      <c r="F192" s="71"/>
     </row>
     <row r="193">
       <c r="D193" s="14"/>
       <c r="E193" s="48"/>
-      <c r="F193" s="68"/>
+      <c r="F193" s="71"/>
     </row>
     <row r="194">
       <c r="D194" s="14"/>
       <c r="E194" s="48"/>
-      <c r="F194" s="68"/>
+      <c r="F194" s="71"/>
     </row>
     <row r="195">
       <c r="D195" s="14"/>
       <c r="E195" s="48"/>
-      <c r="F195" s="68"/>
+      <c r="F195" s="71"/>
     </row>
     <row r="196">
       <c r="D196" s="14"/>
       <c r="E196" s="48"/>
-      <c r="F196" s="68"/>
+      <c r="F196" s="71"/>
     </row>
     <row r="197">
       <c r="D197" s="14"/>
       <c r="E197" s="48"/>
-      <c r="F197" s="68"/>
+      <c r="F197" s="71"/>
     </row>
     <row r="198">
       <c r="D198" s="14"/>
       <c r="E198" s="48"/>
-      <c r="F198" s="68"/>
+      <c r="F198" s="71"/>
     </row>
     <row r="199">
       <c r="D199" s="14"/>
       <c r="E199" s="48"/>
-      <c r="F199" s="68"/>
+      <c r="F199" s="71"/>
     </row>
     <row r="200">
       <c r="D200" s="14"/>
       <c r="E200" s="48"/>
-      <c r="F200" s="68"/>
+      <c r="F200" s="71"/>
     </row>
     <row r="201">
       <c r="D201" s="14"/>
       <c r="E201" s="48"/>
-      <c r="F201" s="68"/>
+      <c r="F201" s="71"/>
     </row>
     <row r="202">
       <c r="D202" s="14"/>
       <c r="E202" s="48"/>
-      <c r="F202" s="68"/>
+      <c r="F202" s="71"/>
     </row>
     <row r="203">
       <c r="D203" s="14"/>
       <c r="E203" s="48"/>
-      <c r="F203" s="68"/>
+      <c r="F203" s="71"/>
     </row>
     <row r="204">
       <c r="D204" s="14"/>
       <c r="E204" s="48"/>
-      <c r="F204" s="68"/>
+      <c r="F204" s="71"/>
     </row>
     <row r="205">
       <c r="D205" s="14"/>
       <c r="E205" s="48"/>
-      <c r="F205" s="68"/>
+      <c r="F205" s="71"/>
     </row>
     <row r="206">
       <c r="D206" s="14"/>
       <c r="E206" s="48"/>
-      <c r="F206" s="68"/>
+      <c r="F206" s="71"/>
     </row>
     <row r="207">
       <c r="D207" s="14"/>
       <c r="E207" s="48"/>
-      <c r="F207" s="68"/>
+      <c r="F207" s="71"/>
     </row>
     <row r="208">
       <c r="D208" s="14"/>
       <c r="E208" s="48"/>
-      <c r="F208" s="68"/>
+      <c r="F208" s="71"/>
     </row>
     <row r="209">
       <c r="D209" s="14"/>
       <c r="E209" s="48"/>
-      <c r="F209" s="68"/>
+      <c r="F209" s="71"/>
     </row>
     <row r="210">
       <c r="D210" s="14"/>
       <c r="E210" s="48"/>
-      <c r="F210" s="68"/>
+      <c r="F210" s="71"/>
     </row>
     <row r="211">
       <c r="D211" s="14"/>
       <c r="E211" s="48"/>
-      <c r="F211" s="68"/>
+      <c r="F211" s="71"/>
     </row>
     <row r="212">
       <c r="D212" s="14"/>
       <c r="E212" s="48"/>
-      <c r="F212" s="68"/>
+      <c r="F212" s="71"/>
     </row>
     <row r="213">
       <c r="D213" s="14"/>
       <c r="E213" s="48"/>
-      <c r="F213" s="68"/>
+      <c r="F213" s="71"/>
     </row>
     <row r="214">
       <c r="D214" s="14"/>
       <c r="E214" s="48"/>
-      <c r="F214" s="68"/>
+      <c r="F214" s="71"/>
     </row>
     <row r="215">
       <c r="D215" s="14"/>
       <c r="E215" s="48"/>
-      <c r="F215" s="68"/>
+      <c r="F215" s="71"/>
     </row>
     <row r="216">
       <c r="D216" s="14"/>
       <c r="E216" s="48"/>
-      <c r="F216" s="68"/>
+      <c r="F216" s="71"/>
     </row>
     <row r="217">
       <c r="D217" s="14"/>
       <c r="E217" s="48"/>
-      <c r="F217" s="68"/>
+      <c r="F217" s="71"/>
     </row>
     <row r="218">
       <c r="D218" s="14"/>
       <c r="E218" s="48"/>
-      <c r="F218" s="68"/>
+      <c r="F218" s="71"/>
     </row>
     <row r="219">
       <c r="D219" s="14"/>
       <c r="E219" s="48"/>
-      <c r="F219" s="68"/>
+      <c r="F219" s="71"/>
     </row>
     <row r="220">
       <c r="D220" s="14"/>
       <c r="E220" s="48"/>
-      <c r="F220" s="68"/>
+      <c r="F220" s="71"/>
     </row>
     <row r="221">
       <c r="D221" s="14"/>
       <c r="E221" s="48"/>
-      <c r="F221" s="68"/>
+      <c r="F221" s="71"/>
     </row>
     <row r="222">
       <c r="D222" s="14"/>
       <c r="E222" s="48"/>
-      <c r="F222" s="68"/>
+      <c r="F222" s="71"/>
     </row>
     <row r="223">
       <c r="D223" s="14"/>
       <c r="E223" s="48"/>
-      <c r="F223" s="68"/>
+      <c r="F223" s="71"/>
     </row>
     <row r="224">
       <c r="D224" s="14"/>
       <c r="E224" s="48"/>
-      <c r="F224" s="68"/>
+      <c r="F224" s="71"/>
     </row>
     <row r="225">
       <c r="D225" s="14"/>
       <c r="E225" s="48"/>
-      <c r="F225" s="68"/>
+      <c r="F225" s="71"/>
     </row>
     <row r="226">
       <c r="D226" s="14"/>
       <c r="E226" s="48"/>
-      <c r="F226" s="68"/>
+      <c r="F226" s="71"/>
     </row>
     <row r="227">
       <c r="D227" s="14"/>
       <c r="E227" s="48"/>
-      <c r="F227" s="68"/>
+      <c r="F227" s="71"/>
     </row>
     <row r="228">
       <c r="D228" s="14"/>
       <c r="E228" s="48"/>
-      <c r="F228" s="68"/>
+      <c r="F228" s="71"/>
     </row>
     <row r="229">
       <c r="D229" s="14"/>
       <c r="E229" s="48"/>
-      <c r="F229" s="68"/>
+      <c r="F229" s="71"/>
     </row>
     <row r="230">
       <c r="D230" s="14"/>
       <c r="E230" s="48"/>
-      <c r="F230" s="68"/>
+      <c r="F230" s="71"/>
     </row>
     <row r="231">
       <c r="D231" s="14"/>
       <c r="E231" s="48"/>
-      <c r="F231" s="68"/>
+      <c r="F231" s="71"/>
     </row>
     <row r="232">
       <c r="D232" s="14"/>
       <c r="E232" s="48"/>
-      <c r="F232" s="68"/>
+      <c r="F232" s="71"/>
     </row>
     <row r="233">
       <c r="D233" s="14"/>
       <c r="E233" s="48"/>
-      <c r="F233" s="68"/>
+      <c r="F233" s="71"/>
     </row>
     <row r="234">
       <c r="D234" s="14"/>
       <c r="E234" s="48"/>
-      <c r="F234" s="68"/>
+      <c r="F234" s="71"/>
     </row>
     <row r="235">
       <c r="D235" s="14"/>
       <c r="E235" s="48"/>
-      <c r="F235" s="68"/>
+      <c r="F235" s="71"/>
     </row>
     <row r="236">
       <c r="D236" s="14"/>
       <c r="E236" s="48"/>
-      <c r="F236" s="68"/>
+      <c r="F236" s="71"/>
     </row>
     <row r="237">
       <c r="D237" s="14"/>
       <c r="E237" s="48"/>
-      <c r="F237" s="68"/>
+      <c r="F237" s="71"/>
     </row>
     <row r="238">
       <c r="D238" s="14"/>
       <c r="E238" s="48"/>
-      <c r="F238" s="68"/>
+      <c r="F238" s="71"/>
     </row>
     <row r="239">
       <c r="D239" s="14"/>
       <c r="E239" s="48"/>
-      <c r="F239" s="68"/>
+      <c r="F239" s="71"/>
     </row>
     <row r="240">
       <c r="D240" s="14"/>
       <c r="E240" s="48"/>
-      <c r="F240" s="68"/>
+      <c r="F240" s="71"/>
     </row>
     <row r="241">
       <c r="D241" s="14"/>
       <c r="E241" s="48"/>
-      <c r="F241" s="68"/>
+      <c r="F241" s="71"/>
     </row>
     <row r="242">
       <c r="D242" s="14"/>
       <c r="E242" s="48"/>
-      <c r="F242" s="68"/>
+      <c r="F242" s="71"/>
     </row>
     <row r="243">
       <c r="D243" s="14"/>
       <c r="E243" s="48"/>
-      <c r="F243" s="68"/>
+      <c r="F243" s="71"/>
     </row>
     <row r="244">
       <c r="D244" s="14"/>
       <c r="E244" s="48"/>
-      <c r="F244" s="68"/>
+      <c r="F244" s="71"/>
     </row>
     <row r="245">
       <c r="D245" s="14"/>
       <c r="E245" s="48"/>
-      <c r="F245" s="68"/>
+      <c r="F245" s="71"/>
     </row>
     <row r="246">
       <c r="D246" s="14"/>
       <c r="E246" s="48"/>
-      <c r="F246" s="68"/>
+      <c r="F246" s="71"/>
     </row>
     <row r="247">
       <c r="D247" s="14"/>
       <c r="E247" s="48"/>
-      <c r="F247" s="68"/>
+      <c r="F247" s="71"/>
     </row>
     <row r="248">
       <c r="D248" s="14"/>
       <c r="E248" s="48"/>
-      <c r="F248" s="68"/>
+      <c r="F248" s="71"/>
     </row>
     <row r="249">
       <c r="D249" s="14"/>
       <c r="E249" s="48"/>
-      <c r="F249" s="68"/>
+      <c r="F249" s="71"/>
     </row>
     <row r="250">
       <c r="D250" s="14"/>
       <c r="E250" s="48"/>
-      <c r="F250" s="68"/>
+      <c r="F250" s="71"/>
     </row>
     <row r="251">
       <c r="D251" s="14"/>
       <c r="E251" s="48"/>
-      <c r="F251" s="68"/>
+      <c r="F251" s="71"/>
     </row>
     <row r="252">
       <c r="D252" s="14"/>
       <c r="E252" s="48"/>
-      <c r="F252" s="68"/>
+      <c r="F252" s="71"/>
     </row>
     <row r="253">
       <c r="D253" s="14"/>
       <c r="E253" s="48"/>
-      <c r="F253" s="68"/>
+      <c r="F253" s="71"/>
     </row>
     <row r="254">
       <c r="D254" s="14"/>
       <c r="E254" s="48"/>
-      <c r="F254" s="68"/>
+      <c r="F254" s="71"/>
     </row>
     <row r="255">
       <c r="D255" s="14"/>
       <c r="E255" s="48"/>
-      <c r="F255" s="68"/>
+      <c r="F255" s="71"/>
     </row>
     <row r="256">
       <c r="D256" s="14"/>
       <c r="E256" s="48"/>
-      <c r="F256" s="68"/>
+      <c r="F256" s="71"/>
     </row>
     <row r="257">
       <c r="D257" s="14"/>
       <c r="E257" s="48"/>
-      <c r="F257" s="68"/>
+      <c r="F257" s="71"/>
     </row>
     <row r="258">
       <c r="D258" s="14"/>
       <c r="E258" s="48"/>
-      <c r="F258" s="68"/>
+      <c r="F258" s="71"/>
     </row>
     <row r="259">
       <c r="D259" s="14"/>
       <c r="E259" s="48"/>
-      <c r="F259" s="68"/>
+      <c r="F259" s="71"/>
     </row>
     <row r="260">
       <c r="D260" s="14"/>
       <c r="E260" s="48"/>
-      <c r="F260" s="68"/>
+      <c r="F260" s="71"/>
     </row>
     <row r="261">
       <c r="D261" s="14"/>
       <c r="E261" s="48"/>
-      <c r="F261" s="68"/>
+      <c r="F261" s="71"/>
     </row>
     <row r="262">
       <c r="D262" s="14"/>
       <c r="E262" s="48"/>
-      <c r="F262" s="68"/>
+      <c r="F262" s="71"/>
     </row>
     <row r="263">
       <c r="D263" s="14"/>
       <c r="E263" s="48"/>
-      <c r="F263" s="68"/>
+      <c r="F263" s="71"/>
     </row>
     <row r="264">
       <c r="D264" s="14"/>
       <c r="E264" s="48"/>
-      <c r="F264" s="68"/>
+      <c r="F264" s="71"/>
     </row>
     <row r="265">
       <c r="D265" s="14"/>
       <c r="E265" s="48"/>
-      <c r="F265" s="68"/>
+      <c r="F265" s="71"/>
     </row>
     <row r="266">
       <c r="D266" s="14"/>
       <c r="E266" s="48"/>
-      <c r="F266" s="68"/>
+      <c r="F266" s="71"/>
     </row>
     <row r="267">
       <c r="D267" s="14"/>
       <c r="E267" s="48"/>
-      <c r="F267" s="68"/>
+      <c r="F267" s="71"/>
     </row>
     <row r="268">
       <c r="D268" s="14"/>
       <c r="E268" s="48"/>
-      <c r="F268" s="68"/>
+      <c r="F268" s="71"/>
     </row>
     <row r="269">
       <c r="D269" s="14"/>
       <c r="E269" s="48"/>
-      <c r="F269" s="68"/>
+      <c r="F269" s="71"/>
     </row>
     <row r="270">
       <c r="D270" s="14"/>
       <c r="E270" s="48"/>
-      <c r="F270" s="68"/>
+      <c r="F270" s="71"/>
     </row>
     <row r="271">
       <c r="D271" s="14"/>
       <c r="E271" s="48"/>
-      <c r="F271" s="68"/>
+      <c r="F271" s="71"/>
     </row>
     <row r="272">
       <c r="D272" s="14"/>
       <c r="E272" s="48"/>
-      <c r="F272" s="68"/>
+      <c r="F272" s="71"/>
     </row>
     <row r="273">
       <c r="D273" s="14"/>
       <c r="E273" s="48"/>
-      <c r="F273" s="68"/>
+      <c r="F273" s="71"/>
     </row>
     <row r="274">
       <c r="D274" s="14"/>
       <c r="E274" s="48"/>
-      <c r="F274" s="68"/>
+      <c r="F274" s="71"/>
     </row>
     <row r="275">
       <c r="D275" s="14"/>
       <c r="E275" s="48"/>
-      <c r="F275" s="68"/>
+      <c r="F275" s="71"/>
     </row>
     <row r="276">
       <c r="D276" s="14"/>
       <c r="E276" s="48"/>
-      <c r="F276" s="68"/>
+      <c r="F276" s="71"/>
     </row>
     <row r="277">
       <c r="D277" s="14"/>
       <c r="E277" s="48"/>
-      <c r="F277" s="68"/>
+      <c r="F277" s="71"/>
     </row>
     <row r="278">
       <c r="D278" s="14"/>
       <c r="E278" s="48"/>
-      <c r="F278" s="68"/>
+      <c r="F278" s="71"/>
     </row>
     <row r="279">
       <c r="D279" s="14"/>
       <c r="E279" s="48"/>
-      <c r="F279" s="68"/>
+      <c r="F279" s="71"/>
     </row>
     <row r="280">
       <c r="D280" s="14"/>
       <c r="E280" s="48"/>
-      <c r="F280" s="68"/>
+      <c r="F280" s="71"/>
     </row>
     <row r="281">
       <c r="D281" s="14"/>
       <c r="E281" s="48"/>
-      <c r="F281" s="68"/>
+      <c r="F281" s="71"/>
     </row>
     <row r="282">
       <c r="D282" s="14"/>
       <c r="E282" s="48"/>
-      <c r="F282" s="68"/>
+      <c r="F282" s="71"/>
     </row>
     <row r="283">
       <c r="D283" s="14"/>
       <c r="E283" s="48"/>
-      <c r="F283" s="68"/>
+      <c r="F283" s="71"/>
     </row>
     <row r="284">
       <c r="D284" s="14"/>
       <c r="E284" s="48"/>
-      <c r="F284" s="68"/>
+      <c r="F284" s="71"/>
     </row>
     <row r="285">
       <c r="D285" s="14"/>
       <c r="E285" s="48"/>
-      <c r="F285" s="68"/>
+      <c r="F285" s="71"/>
     </row>
     <row r="286">
       <c r="D286" s="14"/>
       <c r="E286" s="48"/>
-      <c r="F286" s="68"/>
+      <c r="F286" s="71"/>
     </row>
     <row r="287">
       <c r="D287" s="14"/>
       <c r="E287" s="48"/>
-      <c r="F287" s="68"/>
+      <c r="F287" s="71"/>
     </row>
     <row r="288">
       <c r="D288" s="14"/>
       <c r="E288" s="48"/>
-      <c r="F288" s="68"/>
+      <c r="F288" s="71"/>
     </row>
     <row r="289">
       <c r="D289" s="14"/>
       <c r="E289" s="48"/>
-      <c r="F289" s="68"/>
+      <c r="F289" s="71"/>
     </row>
     <row r="290">
       <c r="D290" s="14"/>
       <c r="E290" s="48"/>
-      <c r="F290" s="68"/>
+      <c r="F290" s="71"/>
     </row>
     <row r="291">
       <c r="D291" s="14"/>
       <c r="E291" s="48"/>
-      <c r="F291" s="68"/>
+      <c r="F291" s="71"/>
     </row>
     <row r="292">
       <c r="D292" s="14"/>
       <c r="E292" s="48"/>
-      <c r="F292" s="68"/>
+      <c r="F292" s="71"/>
     </row>
     <row r="293">
       <c r="D293" s="14"/>
       <c r="E293" s="48"/>
-      <c r="F293" s="68"/>
+      <c r="F293" s="71"/>
     </row>
     <row r="294">
       <c r="D294" s="14"/>
       <c r="E294" s="48"/>
-      <c r="F294" s="68"/>
+      <c r="F294" s="71"/>
     </row>
     <row r="295">
       <c r="D295" s="14"/>
       <c r="E295" s="48"/>
-      <c r="F295" s="68"/>
+      <c r="F295" s="71"/>
     </row>
     <row r="296">
       <c r="D296" s="14"/>
       <c r="E296" s="48"/>
-      <c r="F296" s="68"/>
+      <c r="F296" s="71"/>
     </row>
     <row r="297">
       <c r="D297" s="14"/>
       <c r="E297" s="48"/>
-      <c r="F297" s="68"/>
+      <c r="F297" s="71"/>
     </row>
     <row r="298">
       <c r="D298" s="14"/>
       <c r="E298" s="48"/>
-      <c r="F298" s="68"/>
+      <c r="F298" s="71"/>
     </row>
     <row r="299">
       <c r="D299" s="14"/>
       <c r="E299" s="48"/>
-      <c r="F299" s="68"/>
+      <c r="F299" s="71"/>
     </row>
     <row r="300">
       <c r="D300" s="14"/>
       <c r="E300" s="48"/>
-      <c r="F300" s="68"/>
+      <c r="F300" s="71"/>
     </row>
     <row r="301">
       <c r="D301" s="14"/>
       <c r="E301" s="48"/>
-      <c r="F301" s="68"/>
+      <c r="F301" s="71"/>
     </row>
     <row r="302">
       <c r="D302" s="14"/>
       <c r="E302" s="48"/>
-      <c r="F302" s="68"/>
+      <c r="F302" s="71"/>
     </row>
     <row r="303">
       <c r="D303" s="14"/>
       <c r="E303" s="48"/>
-      <c r="F303" s="68"/>
+      <c r="F303" s="71"/>
     </row>
     <row r="304">
       <c r="D304" s="14"/>
       <c r="E304" s="48"/>
-      <c r="F304" s="68"/>
+      <c r="F304" s="71"/>
     </row>
     <row r="305">
       <c r="D305" s="14"/>
       <c r="E305" s="48"/>
-      <c r="F305" s="68"/>
+      <c r="F305" s="71"/>
     </row>
     <row r="306">
       <c r="D306" s="14"/>
       <c r="E306" s="48"/>
-      <c r="F306" s="68"/>
+      <c r="F306" s="71"/>
     </row>
     <row r="307">
       <c r="D307" s="14"/>
       <c r="E307" s="48"/>
-      <c r="F307" s="68"/>
+      <c r="F307" s="71"/>
     </row>
     <row r="308">
       <c r="D308" s="14"/>
       <c r="E308" s="48"/>
-      <c r="F308" s="68"/>
+      <c r="F308" s="71"/>
     </row>
     <row r="309">
       <c r="D309" s="14"/>
       <c r="E309" s="48"/>
-      <c r="F309" s="68"/>
+      <c r="F309" s="71"/>
     </row>
     <row r="310">
       <c r="D310" s="14"/>
       <c r="E310" s="48"/>
-      <c r="F310" s="68"/>
+      <c r="F310" s="71"/>
     </row>
     <row r="311">
       <c r="D311" s="14"/>
       <c r="E311" s="48"/>
-      <c r="F311" s="68"/>
+      <c r="F311" s="71"/>
     </row>
     <row r="312">
       <c r="D312" s="14"/>
       <c r="E312" s="48"/>
-      <c r="F312" s="68"/>
+      <c r="F312" s="71"/>
     </row>
     <row r="313">
       <c r="D313" s="14"/>
       <c r="E313" s="48"/>
-      <c r="F313" s="68"/>
+      <c r="F313" s="71"/>
     </row>
     <row r="314">
       <c r="D314" s="14"/>
       <c r="E314" s="48"/>
-      <c r="F314" s="68"/>
+      <c r="F314" s="71"/>
     </row>
     <row r="315">
       <c r="D315" s="14"/>
       <c r="E315" s="48"/>
-      <c r="F315" s="68"/>
+      <c r="F315" s="71"/>
     </row>
     <row r="316">
       <c r="D316" s="14"/>
       <c r="E316" s="48"/>
-      <c r="F316" s="68"/>
+      <c r="F316" s="71"/>
     </row>
     <row r="317">
       <c r="D317" s="14"/>
       <c r="E317" s="48"/>
-      <c r="F317" s="68"/>
+      <c r="F317" s="71"/>
     </row>
     <row r="318">
       <c r="D318" s="14"/>
       <c r="E318" s="48"/>
-      <c r="F318" s="68"/>
+      <c r="F318" s="71"/>
     </row>
     <row r="319">
       <c r="D319" s="14"/>
       <c r="E319" s="48"/>
-      <c r="F319" s="68"/>
+      <c r="F319" s="71"/>
     </row>
     <row r="320">
       <c r="D320" s="14"/>
       <c r="E320" s="48"/>
-      <c r="F320" s="68"/>
+      <c r="F320" s="71"/>
     </row>
     <row r="321">
       <c r="D321" s="14"/>
       <c r="E321" s="48"/>
-      <c r="F321" s="68"/>
+      <c r="F321" s="71"/>
     </row>
     <row r="322">
       <c r="D322" s="14"/>
       <c r="E322" s="48"/>
-      <c r="F322" s="68"/>
+      <c r="F322" s="71"/>
     </row>
     <row r="323">
       <c r="D323" s="14"/>
       <c r="E323" s="48"/>
-      <c r="F323" s="68"/>
+      <c r="F323" s="71"/>
     </row>
     <row r="324">
       <c r="D324" s="14"/>
       <c r="E324" s="48"/>
-      <c r="F324" s="68"/>
+      <c r="F324" s="71"/>
     </row>
     <row r="325">
       <c r="D325" s="14"/>
       <c r="E325" s="48"/>
-      <c r="F325" s="68"/>
+      <c r="F325" s="71"/>
     </row>
     <row r="326">
       <c r="D326" s="14"/>
       <c r="E326" s="48"/>
-      <c r="F326" s="68"/>
+      <c r="F326" s="71"/>
     </row>
     <row r="327">
       <c r="D327" s="14"/>
       <c r="E327" s="48"/>
-      <c r="F327" s="68"/>
+      <c r="F327" s="71"/>
     </row>
     <row r="328">
       <c r="D328" s="14"/>
       <c r="E328" s="48"/>
-      <c r="F328" s="68"/>
+      <c r="F328" s="71"/>
     </row>
     <row r="329">
       <c r="D329" s="14"/>
       <c r="E329" s="48"/>
-      <c r="F329" s="68"/>
+      <c r="F329" s="71"/>
     </row>
     <row r="330">
       <c r="D330" s="14"/>
       <c r="E330" s="48"/>
-      <c r="F330" s="68"/>
+      <c r="F330" s="71"/>
     </row>
     <row r="331">
       <c r="D331" s="14"/>
       <c r="E331" s="48"/>
-      <c r="F331" s="68"/>
+      <c r="F331" s="71"/>
     </row>
     <row r="332">
       <c r="D332" s="14"/>
       <c r="E332" s="48"/>
-      <c r="F332" s="68"/>
+      <c r="F332" s="71"/>
     </row>
     <row r="333">
       <c r="D333" s="14"/>
       <c r="E333" s="48"/>
-      <c r="F333" s="68"/>
+      <c r="F333" s="71"/>
     </row>
     <row r="334">
       <c r="D334" s="14"/>
       <c r="E334" s="48"/>
-      <c r="F334" s="68"/>
+      <c r="F334" s="71"/>
     </row>
     <row r="335">
       <c r="D335" s="14"/>
       <c r="E335" s="48"/>
-      <c r="F335" s="68"/>
+      <c r="F335" s="71"/>
     </row>
     <row r="336">
       <c r="D336" s="14"/>
       <c r="E336" s="48"/>
-      <c r="F336" s="68"/>
+      <c r="F336" s="71"/>
     </row>
     <row r="337">
       <c r="D337" s="14"/>
       <c r="E337" s="48"/>
-      <c r="F337" s="68"/>
+      <c r="F337" s="71"/>
     </row>
     <row r="338">
       <c r="D338" s="14"/>
       <c r="E338" s="48"/>
-      <c r="F338" s="68"/>
+      <c r="F338" s="71"/>
     </row>
     <row r="339">
       <c r="D339" s="14"/>
       <c r="E339" s="48"/>
-      <c r="F339" s="68"/>
+      <c r="F339" s="71"/>
     </row>
     <row r="340">
       <c r="D340" s="14"/>
       <c r="E340" s="48"/>
-      <c r="F340" s="68"/>
+      <c r="F340" s="71"/>
     </row>
     <row r="341">
       <c r="D341" s="14"/>
       <c r="E341" s="48"/>
-      <c r="F341" s="68"/>
+      <c r="F341" s="71"/>
     </row>
     <row r="342">
       <c r="D342" s="14"/>
       <c r="E342" s="48"/>
-      <c r="F342" s="68"/>
+      <c r="F342" s="71"/>
     </row>
     <row r="343">
       <c r="D343" s="14"/>
       <c r="E343" s="48"/>
-      <c r="F343" s="68"/>
+      <c r="F343" s="71"/>
     </row>
     <row r="344">
       <c r="D344" s="14"/>
       <c r="E344" s="48"/>
-      <c r="F344" s="68"/>
+      <c r="F344" s="71"/>
     </row>
     <row r="345">
       <c r="D345" s="14"/>
       <c r="E345" s="48"/>
-      <c r="F345" s="68"/>
+      <c r="F345" s="71"/>
     </row>
     <row r="346">
       <c r="D346" s="14"/>
       <c r="E346" s="48"/>
-      <c r="F346" s="68"/>
+      <c r="F346" s="71"/>
     </row>
     <row r="347">
       <c r="D347" s="14"/>
       <c r="E347" s="48"/>
-      <c r="F347" s="68"/>
+      <c r="F347" s="71"/>
     </row>
     <row r="348">
       <c r="D348" s="14"/>
       <c r="E348" s="48"/>
-      <c r="F348" s="68"/>
+      <c r="F348" s="71"/>
     </row>
     <row r="349">
       <c r="D349" s="14"/>
       <c r="E349" s="48"/>
-      <c r="F349" s="68"/>
+      <c r="F349" s="71"/>
     </row>
     <row r="350">
       <c r="D350" s="14"/>
       <c r="E350" s="48"/>
-      <c r="F350" s="68"/>
+      <c r="F350" s="71"/>
     </row>
     <row r="351">
       <c r="D351" s="14"/>
       <c r="E351" s="48"/>
-      <c r="F351" s="68"/>
+      <c r="F351" s="71"/>
     </row>
     <row r="352">
       <c r="D352" s="14"/>
       <c r="E352" s="48"/>
-      <c r="F352" s="68"/>
+      <c r="F352" s="71"/>
     </row>
     <row r="353">
       <c r="D353" s="14"/>
       <c r="E353" s="48"/>
-      <c r="F353" s="68"/>
+      <c r="F353" s="71"/>
     </row>
     <row r="354">
       <c r="D354" s="14"/>
       <c r="E354" s="48"/>
-      <c r="F354" s="68"/>
+      <c r="F354" s="71"/>
     </row>
     <row r="355">
       <c r="D355" s="14"/>
       <c r="E355" s="48"/>
-      <c r="F355" s="68"/>
+      <c r="F355" s="71"/>
     </row>
     <row r="356">
       <c r="D356" s="14"/>
       <c r="E356" s="48"/>
-      <c r="F356" s="68"/>
+      <c r="F356" s="71"/>
     </row>
     <row r="357">
       <c r="D357" s="14"/>
       <c r="E357" s="48"/>
-      <c r="F357" s="68"/>
+      <c r="F357" s="71"/>
     </row>
     <row r="358">
       <c r="D358" s="14"/>
       <c r="E358" s="48"/>
-      <c r="F358" s="68"/>
+      <c r="F358" s="71"/>
     </row>
     <row r="359">
       <c r="D359" s="14"/>
       <c r="E359" s="48"/>
-      <c r="F359" s="68"/>
+      <c r="F359" s="71"/>
     </row>
     <row r="360">
       <c r="D360" s="14"/>
       <c r="E360" s="48"/>
-      <c r="F360" s="68"/>
+      <c r="F360" s="71"/>
     </row>
     <row r="361">
       <c r="D361" s="14"/>
       <c r="E361" s="48"/>
-      <c r="F361" s="68"/>
+      <c r="F361" s="71"/>
     </row>
     <row r="362">
       <c r="D362" s="14"/>
       <c r="E362" s="48"/>
-      <c r="F362" s="68"/>
+      <c r="F362" s="71"/>
     </row>
     <row r="363">
       <c r="D363" s="14"/>
       <c r="E363" s="48"/>
-      <c r="F363" s="68"/>
+      <c r="F363" s="71"/>
     </row>
     <row r="364">
       <c r="D364" s="14"/>
       <c r="E364" s="48"/>
-      <c r="F364" s="68"/>
+      <c r="F364" s="71"/>
     </row>
     <row r="365">
       <c r="D365" s="14"/>
       <c r="E365" s="48"/>
-      <c r="F365" s="68"/>
+      <c r="F365" s="71"/>
     </row>
     <row r="366">
       <c r="D366" s="14"/>
       <c r="E366" s="48"/>
-      <c r="F366" s="68"/>
+      <c r="F366" s="71"/>
     </row>
     <row r="367">
       <c r="D367" s="14"/>
       <c r="E367" s="48"/>
-      <c r="F367" s="68"/>
+      <c r="F367" s="71"/>
     </row>
     <row r="368">
       <c r="D368" s="14"/>
       <c r="E368" s="48"/>
-      <c r="F368" s="68"/>
+      <c r="F368" s="71"/>
     </row>
     <row r="369">
       <c r="D369" s="14"/>
       <c r="E369" s="48"/>
-      <c r="F369" s="68"/>
+      <c r="F369" s="71"/>
     </row>
     <row r="370">
       <c r="D370" s="14"/>
       <c r="E370" s="48"/>
-      <c r="F370" s="68"/>
+      <c r="F370" s="71"/>
     </row>
     <row r="371">
       <c r="D371" s="14"/>
       <c r="E371" s="48"/>
-      <c r="F371" s="68"/>
+      <c r="F371" s="71"/>
     </row>
     <row r="372">
       <c r="D372" s="14"/>
       <c r="E372" s="48"/>
-      <c r="F372" s="68"/>
+      <c r="F372" s="71"/>
     </row>
     <row r="373">
       <c r="D373" s="14"/>
       <c r="E373" s="48"/>
-      <c r="F373" s="68"/>
+      <c r="F373" s="71"/>
     </row>
     <row r="374">
       <c r="D374" s="14"/>
       <c r="E374" s="48"/>
-      <c r="F374" s="68"/>
+      <c r="F374" s="71"/>
     </row>
     <row r="375">
       <c r="D375" s="14"/>
       <c r="E375" s="48"/>
-      <c r="F375" s="68"/>
+      <c r="F375" s="71"/>
     </row>
     <row r="376">
       <c r="D376" s="14"/>
       <c r="E376" s="48"/>
-      <c r="F376" s="68"/>
+      <c r="F376" s="71"/>
     </row>
     <row r="377">
       <c r="D377" s="14"/>
       <c r="E377" s="48"/>
-      <c r="F377" s="68"/>
+      <c r="F377" s="71"/>
     </row>
     <row r="378">
       <c r="D378" s="14"/>
       <c r="E378" s="48"/>
-      <c r="F378" s="68"/>
+      <c r="F378" s="71"/>
     </row>
     <row r="379">
       <c r="D379" s="14"/>
       <c r="E379" s="48"/>
-      <c r="F379" s="68"/>
+      <c r="F379" s="71"/>
     </row>
     <row r="380">
       <c r="D380" s="14"/>
       <c r="E380" s="48"/>
-      <c r="F380" s="68"/>
+      <c r="F380" s="71"/>
     </row>
     <row r="381">
       <c r="D381" s="14"/>
       <c r="E381" s="48"/>
-      <c r="F381" s="68"/>
+      <c r="F381" s="71"/>
     </row>
     <row r="382">
       <c r="D382" s="14"/>
       <c r="E382" s="48"/>
-      <c r="F382" s="68"/>
+      <c r="F382" s="71"/>
     </row>
     <row r="383">
       <c r="D383" s="14"/>
       <c r="E383" s="48"/>
-      <c r="F383" s="68"/>
+      <c r="F383" s="71"/>
     </row>
     <row r="384">
       <c r="D384" s="14"/>
       <c r="E384" s="48"/>
-      <c r="F384" s="68"/>
+      <c r="F384" s="71"/>
     </row>
     <row r="385">
       <c r="D385" s="14"/>
       <c r="E385" s="48"/>
-      <c r="F385" s="68"/>
+      <c r="F385" s="71"/>
     </row>
     <row r="386">
       <c r="D386" s="14"/>
       <c r="E386" s="48"/>
-      <c r="F386" s="68"/>
+      <c r="F386" s="71"/>
     </row>
     <row r="387">
       <c r="D387" s="14"/>
       <c r="E387" s="48"/>
-      <c r="F387" s="68"/>
+      <c r="F387" s="71"/>
     </row>
     <row r="388">
       <c r="D388" s="14"/>
       <c r="E388" s="48"/>
-      <c r="F388" s="68"/>
+      <c r="F388" s="71"/>
     </row>
     <row r="389">
       <c r="D389" s="14"/>
       <c r="E389" s="48"/>
-      <c r="F389" s="68"/>
+      <c r="F389" s="71"/>
     </row>
     <row r="390">
       <c r="D390" s="14"/>
       <c r="E390" s="48"/>
-      <c r="F390" s="68"/>
+      <c r="F390" s="71"/>
     </row>
     <row r="391">
       <c r="D391" s="14"/>
       <c r="E391" s="48"/>
-      <c r="F391" s="68"/>
+      <c r="F391" s="71"/>
     </row>
     <row r="392">
       <c r="D392" s="14"/>
       <c r="E392" s="48"/>
-      <c r="F392" s="68"/>
+      <c r="F392" s="71"/>
     </row>
     <row r="393">
       <c r="D393" s="14"/>
       <c r="E393" s="48"/>
-      <c r="F393" s="68"/>
+      <c r="F393" s="71"/>
     </row>
     <row r="394">
       <c r="D394" s="14"/>
       <c r="E394" s="48"/>
-      <c r="F394" s="68"/>
+      <c r="F394" s="71"/>
     </row>
     <row r="395">
       <c r="D395" s="14"/>
       <c r="E395" s="48"/>
-      <c r="F395" s="68"/>
+      <c r="F395" s="71"/>
     </row>
     <row r="396">
       <c r="D396" s="14"/>
       <c r="E396" s="48"/>
-      <c r="F396" s="68"/>
+      <c r="F396" s="71"/>
     </row>
     <row r="397">
       <c r="D397" s="14"/>
       <c r="E397" s="48"/>
-      <c r="F397" s="68"/>
+      <c r="F397" s="71"/>
     </row>
     <row r="398">
       <c r="D398" s="14"/>
       <c r="E398" s="48"/>
-      <c r="F398" s="68"/>
+      <c r="F398" s="71"/>
     </row>
     <row r="399">
       <c r="D399" s="14"/>
       <c r="E399" s="48"/>
-      <c r="F399" s="68"/>
+      <c r="F399" s="71"/>
     </row>
     <row r="400">
       <c r="D400" s="14"/>
       <c r="E400" s="48"/>
-      <c r="F400" s="68"/>
+      <c r="F400" s="71"/>
     </row>
     <row r="401">
       <c r="D401" s="14"/>
       <c r="E401" s="48"/>
-      <c r="F401" s="68"/>
+      <c r="F401" s="71"/>
     </row>
     <row r="402">
       <c r="D402" s="14"/>
       <c r="E402" s="48"/>
-      <c r="F402" s="68"/>
+      <c r="F402" s="71"/>
     </row>
     <row r="403">
       <c r="D403" s="14"/>
       <c r="E403" s="48"/>
-      <c r="F403" s="68"/>
+      <c r="F403" s="71"/>
     </row>
     <row r="404">
       <c r="D404" s="14"/>
       <c r="E404" s="48"/>
-      <c r="F404" s="68"/>
+      <c r="F404" s="71"/>
     </row>
     <row r="405">
       <c r="D405" s="14"/>
       <c r="E405" s="48"/>
-      <c r="F405" s="68"/>
+      <c r="F405" s="71"/>
     </row>
     <row r="406">
       <c r="D406" s="14"/>
       <c r="E406" s="48"/>
-      <c r="F406" s="68"/>
+      <c r="F406" s="71"/>
     </row>
     <row r="407">
       <c r="D407" s="14"/>
       <c r="E407" s="48"/>
-      <c r="F407" s="68"/>
+      <c r="F407" s="71"/>
     </row>
     <row r="408">
       <c r="D408" s="14"/>
       <c r="E408" s="48"/>
-      <c r="F408" s="68"/>
+      <c r="F408" s="71"/>
     </row>
     <row r="409">
       <c r="D409" s="14"/>
       <c r="E409" s="48"/>
-      <c r="F409" s="68"/>
+      <c r="F409" s="71"/>
     </row>
     <row r="410">
       <c r="D410" s="14"/>
       <c r="E410" s="48"/>
-      <c r="F410" s="68"/>
+      <c r="F410" s="71"/>
     </row>
     <row r="411">
       <c r="D411" s="14"/>
       <c r="E411" s="48"/>
-      <c r="F411" s="68"/>
+      <c r="F411" s="71"/>
     </row>
     <row r="412">
       <c r="D412" s="14"/>
       <c r="E412" s="48"/>
-      <c r="F412" s="68"/>
+      <c r="F412" s="71"/>
     </row>
     <row r="413">
       <c r="D413" s="14"/>
       <c r="E413" s="48"/>
-      <c r="F413" s="68"/>
+      <c r="F413" s="71"/>
     </row>
     <row r="414">
       <c r="D414" s="14"/>
       <c r="E414" s="48"/>
-      <c r="F414" s="68"/>
+      <c r="F414" s="71"/>
     </row>
     <row r="415">
       <c r="D415" s="14"/>
       <c r="E415" s="48"/>
-      <c r="F415" s="68"/>
+      <c r="F415" s="71"/>
     </row>
     <row r="416">
       <c r="D416" s="14"/>
       <c r="E416" s="48"/>
-      <c r="F416" s="68"/>
+      <c r="F416" s="71"/>
     </row>
     <row r="417">
       <c r="D417" s="14"/>
       <c r="E417" s="48"/>
-      <c r="F417" s="68"/>
+      <c r="F417" s="71"/>
     </row>
     <row r="418">
       <c r="D418" s="14"/>
       <c r="E418" s="48"/>
-      <c r="F418" s="68"/>
+      <c r="F418" s="71"/>
     </row>
     <row r="419">
       <c r="D419" s="14"/>
       <c r="E419" s="48"/>
-      <c r="F419" s="68"/>
+      <c r="F419" s="71"/>
     </row>
     <row r="420">
       <c r="D420" s="14"/>
       <c r="E420" s="48"/>
-      <c r="F420" s="68"/>
+      <c r="F420" s="71"/>
     </row>
     <row r="421">
       <c r="D421" s="14"/>
       <c r="E421" s="48"/>
-      <c r="F421" s="68"/>
+      <c r="F421" s="71"/>
     </row>
     <row r="422">
       <c r="D422" s="14"/>
       <c r="E422" s="48"/>
-      <c r="F422" s="68"/>
+      <c r="F422" s="71"/>
     </row>
     <row r="423">
       <c r="D423" s="14"/>
       <c r="E423" s="48"/>
-      <c r="F423" s="68"/>
+      <c r="F423" s="71"/>
     </row>
     <row r="424">
       <c r="D424" s="14"/>
       <c r="E424" s="48"/>
-      <c r="F424" s="68"/>
+      <c r="F424" s="71"/>
     </row>
     <row r="425">
       <c r="D425" s="14"/>
       <c r="E425" s="48"/>
-      <c r="F425" s="68"/>
+      <c r="F425" s="71"/>
     </row>
     <row r="426">
       <c r="D426" s="14"/>
       <c r="E426" s="48"/>
-      <c r="F426" s="68"/>
+      <c r="F426" s="71"/>
     </row>
     <row r="427">
       <c r="D427" s="14"/>
       <c r="E427" s="48"/>
-      <c r="F427" s="68"/>
+      <c r="F427" s="71"/>
     </row>
     <row r="428">
       <c r="D428" s="14"/>
       <c r="E428" s="48"/>
-      <c r="F428" s="68"/>
+      <c r="F428" s="71"/>
     </row>
     <row r="429">
       <c r="D429" s="14"/>
       <c r="E429" s="48"/>
-      <c r="F429" s="68"/>
+      <c r="F429" s="71"/>
     </row>
     <row r="430">
       <c r="D430" s="14"/>
       <c r="E430" s="48"/>
-      <c r="F430" s="68"/>
+      <c r="F430" s="71"/>
     </row>
     <row r="431">
       <c r="D431" s="14"/>
       <c r="E431" s="48"/>
-      <c r="F431" s="68"/>
+      <c r="F431" s="71"/>
     </row>
     <row r="432">
       <c r="D432" s="14"/>
       <c r="E432" s="48"/>
-      <c r="F432" s="68"/>
+      <c r="F432" s="71"/>
     </row>
     <row r="433">
       <c r="D433" s="14"/>
       <c r="E433" s="48"/>
-      <c r="F433" s="68"/>
+      <c r="F433" s="71"/>
     </row>
     <row r="434">
       <c r="D434" s="14"/>
       <c r="E434" s="48"/>
-      <c r="F434" s="68"/>
+      <c r="F434" s="71"/>
     </row>
     <row r="435">
       <c r="D435" s="14"/>
       <c r="E435" s="48"/>
-      <c r="F435" s="68"/>
+      <c r="F435" s="71"/>
     </row>
     <row r="436">
       <c r="D436" s="14"/>
       <c r="E436" s="48"/>
-      <c r="F436" s="68"/>
+      <c r="F436" s="71"/>
     </row>
     <row r="437">
       <c r="D437" s="14"/>
       <c r="E437" s="48"/>
-      <c r="F437" s="68"/>
+      <c r="F437" s="71"/>
     </row>
     <row r="438">
       <c r="D438" s="14"/>
       <c r="E438" s="48"/>
-      <c r="F438" s="68"/>
+      <c r="F438" s="71"/>
     </row>
     <row r="439">
       <c r="D439" s="14"/>
       <c r="E439" s="48"/>
-      <c r="F439" s="68"/>
+      <c r="F439" s="71"/>
     </row>
     <row r="440">
       <c r="D440" s="14"/>
       <c r="E440" s="48"/>
-      <c r="F440" s="68"/>
+      <c r="F440" s="71"/>
     </row>
     <row r="441">
       <c r="D441" s="14"/>
       <c r="E441" s="48"/>
-      <c r="F441" s="68"/>
+      <c r="F441" s="71"/>
     </row>
     <row r="442">
       <c r="D442" s="14"/>
       <c r="E442" s="48"/>
-      <c r="F442" s="68"/>
+      <c r="F442" s="71"/>
     </row>
     <row r="443">
       <c r="D443" s="14"/>
       <c r="E443" s="48"/>
-      <c r="F443" s="68"/>
+      <c r="F443" s="71"/>
     </row>
     <row r="444">
       <c r="D444" s="14"/>
       <c r="E444" s="48"/>
-      <c r="F444" s="68"/>
+      <c r="F444" s="71"/>
     </row>
     <row r="445">
       <c r="D445" s="14"/>
       <c r="E445" s="48"/>
-      <c r="F445" s="68"/>
+      <c r="F445" s="71"/>
     </row>
     <row r="446">
       <c r="D446" s="14"/>
       <c r="E446" s="48"/>
-      <c r="F446" s="68"/>
+      <c r="F446" s="71"/>
     </row>
     <row r="447">
       <c r="D447" s="14"/>
       <c r="E447" s="48"/>
-      <c r="F447" s="68"/>
+      <c r="F447" s="71"/>
     </row>
     <row r="448">
       <c r="D448" s="14"/>
       <c r="E448" s="48"/>
-      <c r="F448" s="68"/>
+      <c r="F448" s="71"/>
     </row>
     <row r="449">
       <c r="D449" s="14"/>
       <c r="E449" s="48"/>
-      <c r="F449" s="68"/>
+      <c r="F449" s="71"/>
     </row>
     <row r="450">
       <c r="D450" s="14"/>
       <c r="E450" s="48"/>
-      <c r="F450" s="68"/>
+      <c r="F450" s="71"/>
     </row>
     <row r="451">
       <c r="D451" s="14"/>
       <c r="E451" s="48"/>
-      <c r="F451" s="68"/>
+      <c r="F451" s="71"/>
     </row>
     <row r="452">
       <c r="D452" s="14"/>
       <c r="E452" s="48"/>
-      <c r="F452" s="68"/>
+      <c r="F452" s="71"/>
     </row>
     <row r="453">
       <c r="D453" s="14"/>
       <c r="E453" s="48"/>
-      <c r="F453" s="68"/>
+      <c r="F453" s="71"/>
     </row>
     <row r="454">
       <c r="D454" s="14"/>
       <c r="E454" s="48"/>
-      <c r="F454" s="68"/>
+      <c r="F454" s="71"/>
     </row>
     <row r="455">
       <c r="D455" s="14"/>
       <c r="E455" s="48"/>
-      <c r="F455" s="68"/>
+      <c r="F455" s="71"/>
     </row>
     <row r="456">
       <c r="D456" s="14"/>
       <c r="E456" s="48"/>
-      <c r="F456" s="68"/>
+      <c r="F456" s="71"/>
     </row>
     <row r="457">
       <c r="D457" s="14"/>
       <c r="E457" s="48"/>
-      <c r="F457" s="68"/>
+      <c r="F457" s="71"/>
     </row>
     <row r="458">
       <c r="D458" s="14"/>
       <c r="E458" s="48"/>
-      <c r="F458" s="68"/>
+      <c r="F458" s="71"/>
     </row>
     <row r="459">
       <c r="D459" s="14"/>
       <c r="E459" s="48"/>
-      <c r="F459" s="68"/>
+      <c r="F459" s="71"/>
     </row>
     <row r="460">
       <c r="D460" s="14"/>
       <c r="E460" s="48"/>
-      <c r="F460" s="68"/>
+      <c r="F460" s="71"/>
     </row>
     <row r="461">
       <c r="D461" s="14"/>
       <c r="E461" s="48"/>
-      <c r="F461" s="68"/>
+      <c r="F461" s="71"/>
     </row>
     <row r="462">
       <c r="D462" s="14"/>
       <c r="E462" s="48"/>
-      <c r="F462" s="68"/>
+      <c r="F462" s="71"/>
     </row>
     <row r="463">
       <c r="D463" s="14"/>
       <c r="E463" s="48"/>
-      <c r="F463" s="68"/>
+      <c r="F463" s="71"/>
     </row>
     <row r="464">
       <c r="D464" s="14"/>
       <c r="E464" s="48"/>
-      <c r="F464" s="68"/>
+      <c r="F464" s="71"/>
     </row>
     <row r="465">
       <c r="D465" s="14"/>
       <c r="E465" s="48"/>
-      <c r="F465" s="68"/>
+      <c r="F465" s="71"/>
     </row>
     <row r="466">
       <c r="D466" s="14"/>
       <c r="E466" s="48"/>
-      <c r="F466" s="68"/>
+      <c r="F466" s="71"/>
     </row>
     <row r="467">
       <c r="D467" s="14"/>
       <c r="E467" s="48"/>
-      <c r="F467" s="68"/>
+      <c r="F467" s="71"/>
     </row>
     <row r="468">
       <c r="D468" s="14"/>
       <c r="E468" s="48"/>
-      <c r="F468" s="68"/>
+      <c r="F468" s="71"/>
     </row>
     <row r="469">
       <c r="D469" s="14"/>
       <c r="E469" s="48"/>
-      <c r="F469" s="68"/>
+      <c r="F469" s="71"/>
     </row>
     <row r="470">
       <c r="D470" s="14"/>
       <c r="E470" s="48"/>
-      <c r="F470" s="68"/>
+      <c r="F470" s="71"/>
     </row>
     <row r="471">
       <c r="D471" s="14"/>
       <c r="E471" s="48"/>
-      <c r="F471" s="68"/>
+      <c r="F471" s="71"/>
     </row>
     <row r="472">
       <c r="D472" s="14"/>
       <c r="E472" s="48"/>
-      <c r="F472" s="68"/>
+      <c r="F472" s="71"/>
     </row>
     <row r="473">
       <c r="D473" s="14"/>
       <c r="E473" s="48"/>
-      <c r="F473" s="68"/>
+      <c r="F473" s="71"/>
     </row>
     <row r="474">
       <c r="D474" s="14"/>
       <c r="E474" s="48"/>
-      <c r="F474" s="68"/>
+      <c r="F474" s="71"/>
     </row>
     <row r="475">
       <c r="D475" s="14"/>
       <c r="E475" s="48"/>
-      <c r="F475" s="68"/>
+      <c r="F475" s="71"/>
     </row>
     <row r="476">
       <c r="D476" s="14"/>
       <c r="E476" s="48"/>
-      <c r="F476" s="68"/>
+      <c r="F476" s="71"/>
     </row>
     <row r="477">
       <c r="D477" s="14"/>
       <c r="E477" s="48"/>
-      <c r="F477" s="68"/>
+      <c r="F477" s="71"/>
     </row>
     <row r="478">
       <c r="D478" s="14"/>
       <c r="E478" s="48"/>
-      <c r="F478" s="68"/>
+      <c r="F478" s="71"/>
     </row>
     <row r="479">
       <c r="D479" s="14"/>
       <c r="E479" s="48"/>
-      <c r="F479" s="68"/>
+      <c r="F479" s="71"/>
     </row>
     <row r="480">
       <c r="D480" s="14"/>
       <c r="E480" s="48"/>
-      <c r="F480" s="68"/>
+      <c r="F480" s="71"/>
     </row>
     <row r="481">
       <c r="D481" s="14"/>
       <c r="E481" s="48"/>
-      <c r="F481" s="68"/>
+      <c r="F481" s="71"/>
     </row>
     <row r="482">
       <c r="D482" s="14"/>
       <c r="E482" s="48"/>
-      <c r="F482" s="68"/>
+      <c r="F482" s="71"/>
     </row>
     <row r="483">
       <c r="D483" s="14"/>
       <c r="E483" s="48"/>
-      <c r="F483" s="68"/>
+      <c r="F483" s="71"/>
     </row>
     <row r="484">
       <c r="D484" s="14"/>
       <c r="E484" s="48"/>
-      <c r="F484" s="68"/>
+      <c r="F484" s="71"/>
     </row>
     <row r="485">
       <c r="D485" s="14"/>
       <c r="E485" s="48"/>
-      <c r="F485" s="68"/>
+      <c r="F485" s="71"/>
     </row>
     <row r="486">
       <c r="D486" s="14"/>
       <c r="E486" s="48"/>
-      <c r="F486" s="68"/>
+      <c r="F486" s="71"/>
     </row>
     <row r="487">
       <c r="D487" s="14"/>
       <c r="E487" s="48"/>
-      <c r="F487" s="68"/>
+      <c r="F487" s="71"/>
     </row>
     <row r="488">
       <c r="D488" s="14"/>
       <c r="E488" s="48"/>
-      <c r="F488" s="68"/>
+      <c r="F488" s="71"/>
     </row>
     <row r="489">
       <c r="D489" s="14"/>
       <c r="E489" s="48"/>
-      <c r="F489" s="68"/>
+      <c r="F489" s="71"/>
     </row>
     <row r="490">
       <c r="D490" s="14"/>
       <c r="E490" s="48"/>
-      <c r="F490" s="68"/>
+      <c r="F490" s="71"/>
     </row>
     <row r="491">
       <c r="D491" s="14"/>
       <c r="E491" s="48"/>
-      <c r="F491" s="68"/>
+      <c r="F491" s="71"/>
     </row>
     <row r="492">
       <c r="D492" s="14"/>
       <c r="E492" s="48"/>
-      <c r="F492" s="68"/>
+      <c r="F492" s="71"/>
     </row>
     <row r="493">
       <c r="D493" s="14"/>
       <c r="E493" s="48"/>
-      <c r="F493" s="68"/>
+      <c r="F493" s="71"/>
     </row>
     <row r="494">
       <c r="D494" s="14"/>
       <c r="E494" s="48"/>
-      <c r="F494" s="68"/>
+      <c r="F494" s="71"/>
     </row>
     <row r="495">
       <c r="D495" s="14"/>
       <c r="E495" s="48"/>
-      <c r="F495" s="68"/>
+      <c r="F495" s="71"/>
     </row>
     <row r="496">
       <c r="D496" s="14"/>
       <c r="E496" s="48"/>
-      <c r="F496" s="68"/>
+      <c r="F496" s="71"/>
     </row>
     <row r="497">
       <c r="D497" s="14"/>
       <c r="E497" s="48"/>
-      <c r="F497" s="68"/>
+      <c r="F497" s="71"/>
     </row>
     <row r="498">
       <c r="D498" s="14"/>
       <c r="E498" s="48"/>
-      <c r="F498" s="68"/>
+      <c r="F498" s="71"/>
     </row>
     <row r="499">
       <c r="D499" s="14"/>
       <c r="E499" s="48"/>
-      <c r="F499" s="68"/>
+      <c r="F499" s="71"/>
     </row>
     <row r="500">
       <c r="D500" s="14"/>
       <c r="E500" s="48"/>
-      <c r="F500" s="68"/>
+      <c r="F500" s="71"/>
     </row>
     <row r="501">
       <c r="D501" s="14"/>
       <c r="E501" s="48"/>
-      <c r="F501" s="68"/>
+      <c r="F501" s="71"/>
     </row>
     <row r="502">
       <c r="D502" s="14"/>
       <c r="E502" s="48"/>
-      <c r="F502" s="68"/>
+      <c r="F502" s="71"/>
     </row>
     <row r="503">
       <c r="D503" s="14"/>
       <c r="E503" s="48"/>
-      <c r="F503" s="68"/>
+      <c r="F503" s="71"/>
     </row>
     <row r="504">
       <c r="D504" s="14"/>
       <c r="E504" s="48"/>
-      <c r="F504" s="68"/>
+      <c r="F504" s="71"/>
     </row>
     <row r="505">
       <c r="D505" s="14"/>
       <c r="E505" s="48"/>
-      <c r="F505" s="68"/>
+      <c r="F505" s="71"/>
     </row>
     <row r="506">
       <c r="D506" s="14"/>
       <c r="E506" s="48"/>
-      <c r="F506" s="68"/>
+      <c r="F506" s="71"/>
     </row>
     <row r="507">
       <c r="D507" s="14"/>
       <c r="E507" s="48"/>
-      <c r="F507" s="68"/>
+      <c r="F507" s="71"/>
     </row>
     <row r="508">
       <c r="D508" s="14"/>
       <c r="E508" s="48"/>
-      <c r="F508" s="68"/>
+      <c r="F508" s="71"/>
     </row>
     <row r="509">
       <c r="D509" s="14"/>
       <c r="E509" s="48"/>
-      <c r="F509" s="68"/>
+      <c r="F509" s="71"/>
     </row>
     <row r="510">
       <c r="D510" s="14"/>
       <c r="E510" s="48"/>
-      <c r="F510" s="68"/>
+      <c r="F510" s="71"/>
     </row>
     <row r="511">
       <c r="D511" s="14"/>
       <c r="E511" s="48"/>
-      <c r="F511" s="68"/>
+      <c r="F511" s="71"/>
     </row>
     <row r="512">
       <c r="D512" s="14"/>
       <c r="E512" s="48"/>
-      <c r="F512" s="68"/>
+      <c r="F512" s="71"/>
     </row>
     <row r="513">
       <c r="D513" s="14"/>
       <c r="E513" s="48"/>
-      <c r="F513" s="68"/>
+      <c r="F513" s="71"/>
     </row>
     <row r="514">
       <c r="D514" s="14"/>
       <c r="E514" s="48"/>
-      <c r="F514" s="68"/>
+      <c r="F514" s="71"/>
     </row>
     <row r="515">
       <c r="D515" s="14"/>
       <c r="E515" s="48"/>
-      <c r="F515" s="68"/>
+      <c r="F515" s="71"/>
     </row>
     <row r="516">
       <c r="D516" s="14"/>
       <c r="E516" s="48"/>
-      <c r="F516" s="68"/>
+      <c r="F516" s="71"/>
     </row>
     <row r="517">
       <c r="D517" s="14"/>
       <c r="E517" s="48"/>
-      <c r="F517" s="68"/>
+      <c r="F517" s="71"/>
     </row>
     <row r="518">
       <c r="D518" s="14"/>
       <c r="E518" s="48"/>
-      <c r="F518" s="68"/>
+      <c r="F518" s="71"/>
     </row>
     <row r="519">
       <c r="D519" s="14"/>
       <c r="E519" s="48"/>
-      <c r="F519" s="68"/>
+      <c r="F519" s="71"/>
     </row>
     <row r="520">
       <c r="D520" s="14"/>
       <c r="E520" s="48"/>
-      <c r="F520" s="68"/>
+      <c r="F520" s="71"/>
     </row>
     <row r="521">
       <c r="D521" s="14"/>
       <c r="E521" s="48"/>
-      <c r="F521" s="68"/>
+      <c r="F521" s="71"/>
     </row>
     <row r="522">
       <c r="D522" s="14"/>
       <c r="E522" s="48"/>
-      <c r="F522" s="68"/>
+      <c r="F522" s="71"/>
     </row>
     <row r="523">
       <c r="D523" s="14"/>
       <c r="E523" s="48"/>
-      <c r="F523" s="68"/>
+      <c r="F523" s="71"/>
     </row>
     <row r="524">
       <c r="D524" s="14"/>
       <c r="E524" s="48"/>
-      <c r="F524" s="68"/>
+      <c r="F524" s="71"/>
     </row>
     <row r="525">
       <c r="D525" s="14"/>
       <c r="E525" s="48"/>
-      <c r="F525" s="68"/>
+      <c r="F525" s="71"/>
     </row>
     <row r="526">
       <c r="D526" s="14"/>
       <c r="E526" s="48"/>
-      <c r="F526" s="68"/>
+      <c r="F526" s="71"/>
     </row>
     <row r="527">
       <c r="D527" s="14"/>
       <c r="E527" s="48"/>
-      <c r="F527" s="68"/>
+      <c r="F527" s="71"/>
     </row>
     <row r="528">
       <c r="D528" s="14"/>
       <c r="E528" s="48"/>
-      <c r="F528" s="68"/>
+      <c r="F528" s="71"/>
     </row>
     <row r="529">
       <c r="D529" s="14"/>
       <c r="E529" s="48"/>
-      <c r="F529" s="68"/>
+      <c r="F529" s="71"/>
     </row>
     <row r="530">
       <c r="D530" s="14"/>
       <c r="E530" s="48"/>
-      <c r="F530" s="68"/>
+      <c r="F530" s="71"/>
     </row>
     <row r="531">
       <c r="D531" s="14"/>
       <c r="E531" s="48"/>
-      <c r="F531" s="68"/>
+      <c r="F531" s="71"/>
     </row>
     <row r="532">
       <c r="D532" s="14"/>
       <c r="E532" s="48"/>
-      <c r="F532" s="68"/>
+      <c r="F532" s="71"/>
     </row>
     <row r="533">
       <c r="D533" s="14"/>
       <c r="E533" s="48"/>
-      <c r="F533" s="68"/>
+      <c r="F533" s="71"/>
     </row>
     <row r="534">
       <c r="D534" s="14"/>
       <c r="E534" s="48"/>
-      <c r="F534" s="68"/>
+      <c r="F534" s="71"/>
     </row>
     <row r="535">
       <c r="D535" s="14"/>
       <c r="E535" s="48"/>
-      <c r="F535" s="68"/>
+      <c r="F535" s="71"/>
     </row>
     <row r="536">
       <c r="D536" s="14"/>
       <c r="E536" s="48"/>
-      <c r="F536" s="68"/>
+      <c r="F536" s="71"/>
     </row>
     <row r="537">
       <c r="D537" s="14"/>
       <c r="E537" s="48"/>
-      <c r="F537" s="68"/>
+      <c r="F537" s="71"/>
     </row>
     <row r="538">
       <c r="D538" s="14"/>
       <c r="E538" s="48"/>
-      <c r="F538" s="68"/>
+      <c r="F538" s="71"/>
     </row>
     <row r="539">
       <c r="D539" s="14"/>
       <c r="E539" s="48"/>
-      <c r="F539" s="68"/>
+      <c r="F539" s="71"/>
     </row>
     <row r="540">
       <c r="D540" s="14"/>
       <c r="E540" s="48"/>
-      <c r="F540" s="68"/>
+      <c r="F540" s="71"/>
     </row>
     <row r="541">
       <c r="D541" s="14"/>
       <c r="E541" s="48"/>
-      <c r="F541" s="68"/>
+      <c r="F541" s="71"/>
     </row>
     <row r="542">
       <c r="D542" s="14"/>
       <c r="E542" s="48"/>
-      <c r="F542" s="68"/>
+      <c r="F542" s="71"/>
     </row>
     <row r="543">
       <c r="D543" s="14"/>
       <c r="E543" s="48"/>
-      <c r="F543" s="68"/>
+      <c r="F543" s="71"/>
     </row>
     <row r="544">
       <c r="D544" s="14"/>
       <c r="E544" s="48"/>
-      <c r="F544" s="68"/>
+      <c r="F544" s="71"/>
     </row>
     <row r="545">
       <c r="D545" s="14"/>
       <c r="E545" s="48"/>
-      <c r="F545" s="68"/>
+      <c r="F545" s="71"/>
     </row>
     <row r="546">
       <c r="D546" s="14"/>
       <c r="E546" s="48"/>
-      <c r="F546" s="68"/>
+      <c r="F546" s="71"/>
     </row>
     <row r="547">
       <c r="D547" s="14"/>
       <c r="E547" s="48"/>
-      <c r="F547" s="68"/>
+      <c r="F547" s="71"/>
     </row>
     <row r="548">
       <c r="D548" s="14"/>
       <c r="E548" s="48"/>
-      <c r="F548" s="68"/>
+      <c r="F548" s="71"/>
     </row>
     <row r="549">
       <c r="D549" s="14"/>
       <c r="E549" s="48"/>
-      <c r="F549" s="68"/>
+      <c r="F549" s="71"/>
     </row>
     <row r="550">
       <c r="D550" s="14"/>
       <c r="E550" s="48"/>
-      <c r="F550" s="68"/>
+      <c r="F550" s="71"/>
     </row>
     <row r="551">
       <c r="D551" s="14"/>
       <c r="E551" s="48"/>
-      <c r="F551" s="68"/>
+      <c r="F551" s="71"/>
     </row>
     <row r="552">
       <c r="D552" s="14"/>
       <c r="E552" s="48"/>
-      <c r="F552" s="68"/>
+      <c r="F552" s="71"/>
     </row>
     <row r="553">
       <c r="D553" s="14"/>
       <c r="E553" s="48"/>
-      <c r="F553" s="68"/>
+      <c r="F553" s="71"/>
     </row>
     <row r="554">
       <c r="D554" s="14"/>
       <c r="E554" s="48"/>
-      <c r="F554" s="68"/>
+      <c r="F554" s="71"/>
     </row>
     <row r="555">
       <c r="D555" s="14"/>
       <c r="E555" s="48"/>
-      <c r="F555" s="68"/>
+      <c r="F555" s="71"/>
     </row>
     <row r="556">
       <c r="D556" s="14"/>
       <c r="E556" s="48"/>
-      <c r="F556" s="68"/>
+      <c r="F556" s="71"/>
     </row>
     <row r="557">
       <c r="D557" s="14"/>
       <c r="E557" s="48"/>
-      <c r="F557" s="68"/>
+      <c r="F557" s="71"/>
     </row>
     <row r="558">
       <c r="D558" s="14"/>
       <c r="E558" s="48"/>
-      <c r="F558" s="68"/>
+      <c r="F558" s="71"/>
     </row>
     <row r="559">
       <c r="D559" s="14"/>
       <c r="E559" s="48"/>
-      <c r="F559" s="68"/>
+      <c r="F559" s="71"/>
     </row>
     <row r="560">
       <c r="D560" s="14"/>
       <c r="E560" s="48"/>
-      <c r="F560" s="68"/>
+      <c r="F560" s="71"/>
     </row>
     <row r="561">
       <c r="D561" s="14"/>
       <c r="E561" s="48"/>
-      <c r="F561" s="68"/>
+      <c r="F561" s="71"/>
     </row>
     <row r="562">
       <c r="D562" s="14"/>
       <c r="E562" s="48"/>
-      <c r="F562" s="68"/>
+      <c r="F562" s="71"/>
     </row>
     <row r="563">
       <c r="D563" s="14"/>
       <c r="E563" s="48"/>
-      <c r="F563" s="68"/>
+      <c r="F563" s="71"/>
     </row>
     <row r="564">
       <c r="D564" s="14"/>
       <c r="E564" s="48"/>
-      <c r="F564" s="68"/>
+      <c r="F564" s="71"/>
     </row>
     <row r="565">
       <c r="D565" s="14"/>
       <c r="E565" s="48"/>
-      <c r="F565" s="68"/>
+      <c r="F565" s="71"/>
     </row>
     <row r="566">
       <c r="D566" s="14"/>
       <c r="E566" s="48"/>
-      <c r="F566" s="68"/>
+      <c r="F566" s="71"/>
     </row>
     <row r="567">
       <c r="D567" s="14"/>
       <c r="E567" s="48"/>
-      <c r="F567" s="68"/>
+      <c r="F567" s="71"/>
     </row>
     <row r="568">
       <c r="D568" s="14"/>
       <c r="E568" s="48"/>
-      <c r="F568" s="68"/>
+      <c r="F568" s="71"/>
     </row>
     <row r="569">
       <c r="D569" s="14"/>
       <c r="E569" s="48"/>
-      <c r="F569" s="68"/>
+      <c r="F569" s="71"/>
     </row>
     <row r="570">
       <c r="D570" s="14"/>
       <c r="E570" s="48"/>
-      <c r="F570" s="68"/>
+      <c r="F570" s="71"/>
     </row>
     <row r="571">
       <c r="D571" s="14"/>
       <c r="E571" s="48"/>
-      <c r="F571" s="68"/>
+      <c r="F571" s="71"/>
     </row>
     <row r="572">
       <c r="D572" s="14"/>
       <c r="E572" s="48"/>
-      <c r="F572" s="68"/>
+      <c r="F572" s="71"/>
     </row>
     <row r="573">
       <c r="D573" s="14"/>
       <c r="E573" s="48"/>
-      <c r="F573" s="68"/>
+      <c r="F573" s="71"/>
     </row>
     <row r="574">
       <c r="D574" s="14"/>
       <c r="E574" s="48"/>
-      <c r="F574" s="68"/>
+      <c r="F574" s="71"/>
     </row>
     <row r="575">
       <c r="D575" s="14"/>
       <c r="E575" s="48"/>
-      <c r="F575" s="68"/>
+      <c r="F575" s="71"/>
     </row>
     <row r="576">
       <c r="D576" s="14"/>
       <c r="E576" s="48"/>
-      <c r="F576" s="68"/>
+      <c r="F576" s="71"/>
     </row>
     <row r="577">
       <c r="D577" s="14"/>
       <c r="E577" s="48"/>
-      <c r="F577" s="68"/>
+      <c r="F577" s="71"/>
     </row>
     <row r="578">
       <c r="D578" s="14"/>
       <c r="E578" s="48"/>
-      <c r="F578" s="68"/>
+      <c r="F578" s="71"/>
     </row>
     <row r="579">
       <c r="D579" s="14"/>
       <c r="E579" s="48"/>
-      <c r="F579" s="68"/>
+      <c r="F579" s="71"/>
     </row>
     <row r="580">
       <c r="D580" s="14"/>
       <c r="E580" s="48"/>
-      <c r="F580" s="68"/>
+      <c r="F580" s="71"/>
     </row>
     <row r="581">
       <c r="D581" s="14"/>
       <c r="E581" s="48"/>
-      <c r="F581" s="68"/>
+      <c r="F581" s="71"/>
     </row>
     <row r="582">
       <c r="D582" s="14"/>
       <c r="E582" s="48"/>
-      <c r="F582" s="68"/>
+      <c r="F582" s="71"/>
     </row>
     <row r="583">
       <c r="D583" s="14"/>
       <c r="E583" s="48"/>
-      <c r="F583" s="68"/>
+      <c r="F583" s="71"/>
     </row>
     <row r="584">
       <c r="D584" s="14"/>
       <c r="E584" s="48"/>
-      <c r="F584" s="68"/>
+      <c r="F584" s="71"/>
     </row>
     <row r="585">
       <c r="D585" s="14"/>
       <c r="E585" s="48"/>
-      <c r="F585" s="68"/>
+      <c r="F585" s="71"/>
     </row>
     <row r="586">
       <c r="D586" s="14"/>
       <c r="E586" s="48"/>
-      <c r="F586" s="68"/>
+      <c r="F586" s="71"/>
     </row>
     <row r="587">
       <c r="D587" s="14"/>
       <c r="E587" s="48"/>
-      <c r="F587" s="68"/>
+      <c r="F587" s="71"/>
     </row>
     <row r="588">
       <c r="D588" s="14"/>
       <c r="E588" s="48"/>
-      <c r="F588" s="68"/>
+      <c r="F588" s="71"/>
     </row>
     <row r="589">
       <c r="D589" s="14"/>
       <c r="E589" s="48"/>
-      <c r="F589" s="68"/>
+      <c r="F589" s="71"/>
     </row>
     <row r="590">
       <c r="D590" s="14"/>
       <c r="E590" s="48"/>
-      <c r="F590" s="68"/>
+      <c r="F590" s="71"/>
     </row>
     <row r="591">
       <c r="D591" s="14"/>
       <c r="E591" s="48"/>
-      <c r="F591" s="68"/>
+      <c r="F591" s="71"/>
     </row>
     <row r="592">
       <c r="D592" s="14"/>
       <c r="E592" s="48"/>
-      <c r="F592" s="68"/>
+      <c r="F592" s="71"/>
     </row>
     <row r="593">
       <c r="D593" s="14"/>
       <c r="E593" s="48"/>
-      <c r="F593" s="68"/>
+      <c r="F593" s="71"/>
     </row>
     <row r="594">
       <c r="D594" s="14"/>
       <c r="E594" s="48"/>
-      <c r="F594" s="68"/>
+      <c r="F594" s="71"/>
     </row>
     <row r="595">
       <c r="D595" s="14"/>
       <c r="E595" s="48"/>
-      <c r="F595" s="68"/>
+      <c r="F595" s="71"/>
     </row>
     <row r="596">
       <c r="D596" s="14"/>
       <c r="E596" s="48"/>
-      <c r="F596" s="68"/>
+      <c r="F596" s="71"/>
     </row>
     <row r="597">
       <c r="D597" s="14"/>
       <c r="E597" s="48"/>
-      <c r="F597" s="68"/>
+      <c r="F597" s="71"/>
     </row>
     <row r="598">
       <c r="D598" s="14"/>
       <c r="E598" s="48"/>
-      <c r="F598" s="68"/>
+      <c r="F598" s="71"/>
     </row>
     <row r="599">
       <c r="D599" s="14"/>
       <c r="E599" s="48"/>
-      <c r="F599" s="68"/>
+      <c r="F599" s="71"/>
     </row>
     <row r="600">
       <c r="D600" s="14"/>
       <c r="E600" s="48"/>
-      <c r="F600" s="68"/>
+      <c r="F600" s="71"/>
     </row>
     <row r="601">
       <c r="D601" s="14"/>
       <c r="E601" s="48"/>
-      <c r="F601" s="68"/>
+      <c r="F601" s="71"/>
     </row>
     <row r="602">
       <c r="D602" s="14"/>
       <c r="E602" s="48"/>
-      <c r="F602" s="68"/>
+      <c r="F602" s="71"/>
     </row>
     <row r="603">
       <c r="D603" s="14"/>
       <c r="E603" s="48"/>
-      <c r="F603" s="68"/>
+      <c r="F603" s="71"/>
     </row>
     <row r="604">
       <c r="D604" s="14"/>
       <c r="E604" s="48"/>
-      <c r="F604" s="68"/>
+      <c r="F604" s="71"/>
     </row>
     <row r="605">
       <c r="D605" s="14"/>
       <c r="E605" s="48"/>
-      <c r="F605" s="68"/>
+      <c r="F605" s="71"/>
     </row>
     <row r="606">
       <c r="D606" s="14"/>
       <c r="E606" s="48"/>
-      <c r="F606" s="68"/>
+      <c r="F606" s="71"/>
     </row>
     <row r="607">
       <c r="D607" s="14"/>
       <c r="E607" s="48"/>
-      <c r="F607" s="68"/>
+      <c r="F607" s="71"/>
     </row>
     <row r="608">
       <c r="D608" s="14"/>
       <c r="E608" s="48"/>
-      <c r="F608" s="68"/>
+      <c r="F608" s="71"/>
     </row>
     <row r="609">
       <c r="D609" s="14"/>
       <c r="E609" s="48"/>
-      <c r="F609" s="68"/>
+      <c r="F609" s="71"/>
     </row>
     <row r="610">
       <c r="D610" s="14"/>
       <c r="E610" s="48"/>
-      <c r="F610" s="68"/>
+      <c r="F610" s="71"/>
     </row>
     <row r="611">
       <c r="D611" s="14"/>
       <c r="E611" s="48"/>
-      <c r="F611" s="68"/>
+      <c r="F611" s="71"/>
     </row>
     <row r="612">
       <c r="D612" s="14"/>
       <c r="E612" s="48"/>
-      <c r="F612" s="68"/>
+      <c r="F612" s="71"/>
     </row>
     <row r="613">
       <c r="D613" s="14"/>
       <c r="E613" s="48"/>
-      <c r="F613" s="68"/>
+      <c r="F613" s="71"/>
     </row>
     <row r="614">
       <c r="D614" s="14"/>
       <c r="E614" s="48"/>
-      <c r="F614" s="68"/>
+      <c r="F614" s="71"/>
     </row>
     <row r="615">
       <c r="D615" s="14"/>
       <c r="E615" s="48"/>
-      <c r="F615" s="68"/>
+      <c r="F615" s="71"/>
     </row>
     <row r="616">
       <c r="D616" s="14"/>
       <c r="E616" s="48"/>
-      <c r="F616" s="68"/>
+      <c r="F616" s="71"/>
     </row>
     <row r="617">
       <c r="D617" s="14"/>
       <c r="E617" s="48"/>
-      <c r="F617" s="68"/>
+      <c r="F617" s="71"/>
     </row>
     <row r="618">
       <c r="D618" s="14"/>
       <c r="E618" s="48"/>
-      <c r="F618" s="68"/>
+      <c r="F618" s="71"/>
     </row>
     <row r="619">
       <c r="D619" s="14"/>
       <c r="E619" s="48"/>
-      <c r="F619" s="68"/>
+      <c r="F619" s="71"/>
     </row>
     <row r="620">
       <c r="D620" s="14"/>
       <c r="E620" s="48"/>
-      <c r="F620" s="68"/>
+      <c r="F620" s="71"/>
     </row>
     <row r="621">
       <c r="D621" s="14"/>
       <c r="E621" s="48"/>
-      <c r="F621" s="68"/>
+      <c r="F621" s="71"/>
     </row>
     <row r="622">
       <c r="D622" s="14"/>
       <c r="E622" s="48"/>
-      <c r="F622" s="68"/>
+      <c r="F622" s="71"/>
     </row>
     <row r="623">
       <c r="D623" s="14"/>
       <c r="E623" s="48"/>
-      <c r="F623" s="68"/>
+      <c r="F623" s="71"/>
     </row>
     <row r="624">
       <c r="D624" s="14"/>
       <c r="E624" s="48"/>
-      <c r="F624" s="68"/>
+      <c r="F624" s="71"/>
     </row>
     <row r="625">
       <c r="D625" s="14"/>
       <c r="E625" s="48"/>
-      <c r="F625" s="68"/>
+      <c r="F625" s="71"/>
     </row>
     <row r="626">
       <c r="D626" s="14"/>
       <c r="E626" s="48"/>
-      <c r="F626" s="68"/>
+      <c r="F626" s="71"/>
     </row>
     <row r="627">
       <c r="D627" s="14"/>
       <c r="E627" s="48"/>
-      <c r="F627" s="68"/>
+      <c r="F627" s="71"/>
     </row>
     <row r="628">
       <c r="D628" s="14"/>
       <c r="E628" s="48"/>
-      <c r="F628" s="68"/>
+      <c r="F628" s="71"/>
     </row>
     <row r="629">
       <c r="D629" s="14"/>
       <c r="E629" s="48"/>
-      <c r="F629" s="68"/>
+      <c r="F629" s="71"/>
     </row>
     <row r="630">
       <c r="D630" s="14"/>
       <c r="E630" s="48"/>
-      <c r="F630" s="68"/>
+      <c r="F630" s="71"/>
     </row>
     <row r="631">
       <c r="D631" s="14"/>
       <c r="E631" s="48"/>
-      <c r="F631" s="68"/>
+      <c r="F631" s="71"/>
     </row>
     <row r="632">
       <c r="D632" s="14"/>
       <c r="E632" s="48"/>
-      <c r="F632" s="68"/>
+      <c r="F632" s="71"/>
     </row>
     <row r="633">
       <c r="D633" s="14"/>
       <c r="E633" s="48"/>
-      <c r="F633" s="68"/>
+      <c r="F633" s="71"/>
     </row>
     <row r="634">
       <c r="D634" s="14"/>
       <c r="E634" s="48"/>
-      <c r="F634" s="68"/>
+      <c r="F634" s="71"/>
     </row>
     <row r="635">
       <c r="D635" s="14"/>
       <c r="E635" s="48"/>
-      <c r="F635" s="68"/>
+      <c r="F635" s="71"/>
     </row>
     <row r="636">
       <c r="D636" s="14"/>
       <c r="E636" s="48"/>
-      <c r="F636" s="68"/>
+      <c r="F636" s="71"/>
     </row>
     <row r="637">
       <c r="D637" s="14"/>
       <c r="E637" s="48"/>
-      <c r="F637" s="68"/>
+      <c r="F637" s="71"/>
     </row>
     <row r="638">
       <c r="D638" s="14"/>
       <c r="E638" s="48"/>
-      <c r="F638" s="68"/>
+      <c r="F638" s="71"/>
     </row>
     <row r="639">
       <c r="D639" s="14"/>
       <c r="E639" s="48"/>
-      <c r="F639" s="68"/>
+      <c r="F639" s="71"/>
     </row>
     <row r="640">
       <c r="D640" s="14"/>
       <c r="E640" s="48"/>
-      <c r="F640" s="68"/>
+      <c r="F640" s="71"/>
     </row>
     <row r="641">
       <c r="D641" s="14"/>
       <c r="E641" s="48"/>
-      <c r="F641" s="68"/>
+      <c r="F641" s="71"/>
     </row>
     <row r="642">
       <c r="D642" s="14"/>
       <c r="E642" s="48"/>
-      <c r="F642" s="68"/>
+      <c r="F642" s="71"/>
     </row>
     <row r="643">
       <c r="D643" s="14"/>
       <c r="E643" s="48"/>
-      <c r="F643" s="68"/>
+      <c r="F643" s="71"/>
     </row>
     <row r="644">
       <c r="D644" s="14"/>
       <c r="E644" s="48"/>
-      <c r="F644" s="68"/>
+      <c r="F644" s="71"/>
     </row>
     <row r="645">
       <c r="D645" s="14"/>
       <c r="E645" s="48"/>
-      <c r="F645" s="68"/>
+      <c r="F645" s="71"/>
     </row>
     <row r="646">
       <c r="D646" s="14"/>
       <c r="E646" s="48"/>
-      <c r="F646" s="68"/>
+      <c r="F646" s="71"/>
     </row>
     <row r="647">
       <c r="D647" s="14"/>
       <c r="E647" s="48"/>
-      <c r="F647" s="68"/>
+      <c r="F647" s="71"/>
     </row>
     <row r="648">
       <c r="D648" s="14"/>
       <c r="E648" s="48"/>
-      <c r="F648" s="68"/>
+      <c r="F648" s="71"/>
     </row>
     <row r="649">
       <c r="D649" s="14"/>
       <c r="E649" s="48"/>
-      <c r="F649" s="68"/>
+      <c r="F649" s="71"/>
     </row>
     <row r="650">
       <c r="D650" s="14"/>
       <c r="E650" s="48"/>
-      <c r="F650" s="68"/>
+      <c r="F650" s="71"/>
     </row>
     <row r="651">
       <c r="D651" s="14"/>
       <c r="E651" s="48"/>
-      <c r="F651" s="68"/>
+      <c r="F651" s="71"/>
     </row>
     <row r="652">
       <c r="D652" s="14"/>
       <c r="E652" s="48"/>
-      <c r="F652" s="68"/>
+      <c r="F652" s="71"/>
     </row>
     <row r="653">
       <c r="D653" s="14"/>
       <c r="E653" s="48"/>
-      <c r="F653" s="68"/>
+      <c r="F653" s="71"/>
     </row>
     <row r="654">
       <c r="D654" s="14"/>
       <c r="E654" s="48"/>
-      <c r="F654" s="68"/>
+      <c r="F654" s="71"/>
     </row>
     <row r="655">
       <c r="D655" s="14"/>
       <c r="E655" s="48"/>
-      <c r="F655" s="68"/>
+      <c r="F655" s="71"/>
     </row>
     <row r="656">
       <c r="D656" s="14"/>
       <c r="E656" s="48"/>
-      <c r="F656" s="68"/>
+      <c r="F656" s="71"/>
     </row>
     <row r="657">
       <c r="D657" s="14"/>
       <c r="E657" s="48"/>
-      <c r="F657" s="68"/>
+      <c r="F657" s="71"/>
     </row>
     <row r="658">
       <c r="D658" s="14"/>
       <c r="E658" s="48"/>
-      <c r="F658" s="68"/>
+      <c r="F658" s="71"/>
     </row>
     <row r="659">
       <c r="D659" s="14"/>
       <c r="E659" s="48"/>
-      <c r="F659" s="68"/>
+      <c r="F659" s="71"/>
     </row>
     <row r="660">
       <c r="D660" s="14"/>
       <c r="E660" s="48"/>
-      <c r="F660" s="68"/>
+      <c r="F660" s="71"/>
     </row>
     <row r="661">
       <c r="D661" s="14"/>
       <c r="E661" s="48"/>
-      <c r="F661" s="68"/>
+      <c r="F661" s="71"/>
     </row>
     <row r="662">
       <c r="D662" s="14"/>
       <c r="E662" s="48"/>
-      <c r="F662" s="68"/>
+      <c r="F662" s="71"/>
     </row>
     <row r="663">
       <c r="D663" s="14"/>
       <c r="E663" s="48"/>
-      <c r="F663" s="68"/>
+      <c r="F663" s="71"/>
     </row>
     <row r="664">
       <c r="D664" s="14"/>
       <c r="E664" s="48"/>
-      <c r="F664" s="68"/>
+      <c r="F664" s="71"/>
     </row>
     <row r="665">
       <c r="D665" s="14"/>
       <c r="E665" s="48"/>
-      <c r="F665" s="68"/>
+      <c r="F665" s="71"/>
     </row>
     <row r="666">
       <c r="D666" s="14"/>
       <c r="E666" s="48"/>
-      <c r="F666" s="68"/>
+      <c r="F666" s="71"/>
     </row>
     <row r="667">
       <c r="D667" s="14"/>
       <c r="E667" s="48"/>
-      <c r="F667" s="68"/>
+      <c r="F667" s="71"/>
     </row>
     <row r="668">
       <c r="D668" s="14"/>
       <c r="E668" s="48"/>
-      <c r="F668" s="68"/>
+      <c r="F668" s="71"/>
     </row>
     <row r="669">
       <c r="D669" s="14"/>
       <c r="E669" s="48"/>
-      <c r="F669" s="68"/>
+      <c r="F669" s="71"/>
     </row>
     <row r="670">
       <c r="D670" s="14"/>
       <c r="E670" s="48"/>
-      <c r="F670" s="68"/>
+      <c r="F670" s="71"/>
     </row>
     <row r="671">
       <c r="D671" s="14"/>
       <c r="E671" s="48"/>
-      <c r="F671" s="68"/>
+      <c r="F671" s="71"/>
     </row>
     <row r="672">
       <c r="D672" s="14"/>
       <c r="E672" s="48"/>
-      <c r="F672" s="68"/>
+      <c r="F672" s="71"/>
     </row>
     <row r="673">
       <c r="D673" s="14"/>
       <c r="E673" s="48"/>
-      <c r="F673" s="68"/>
+      <c r="F673" s="71"/>
     </row>
     <row r="674">
       <c r="D674" s="14"/>
       <c r="E674" s="48"/>
-      <c r="F674" s="68"/>
+      <c r="F674" s="71"/>
     </row>
     <row r="675">
       <c r="D675" s="14"/>
       <c r="E675" s="48"/>
-      <c r="F675" s="68"/>
+      <c r="F675" s="71"/>
     </row>
     <row r="676">
       <c r="D676" s="14"/>
       <c r="E676" s="48"/>
-      <c r="F676" s="68"/>
+      <c r="F676" s="71"/>
     </row>
     <row r="677">
       <c r="D677" s="14"/>
       <c r="E677" s="48"/>
-      <c r="F677" s="68"/>
+      <c r="F677" s="71"/>
     </row>
     <row r="678">
       <c r="D678" s="14"/>
       <c r="E678" s="48"/>
-      <c r="F678" s="68"/>
+      <c r="F678" s="71"/>
     </row>
     <row r="679">
       <c r="D679" s="14"/>
       <c r="E679" s="48"/>
-      <c r="F679" s="68"/>
+      <c r="F679" s="71"/>
     </row>
     <row r="680">
       <c r="D680" s="14"/>
       <c r="E680" s="48"/>
-      <c r="F680" s="68"/>
+      <c r="F680" s="71"/>
     </row>
     <row r="681">
       <c r="D681" s="14"/>
       <c r="E681" s="48"/>
-      <c r="F681" s="68"/>
+      <c r="F681" s="71"/>
     </row>
     <row r="682">
       <c r="D682" s="14"/>
       <c r="E682" s="48"/>
-      <c r="F682" s="68"/>
+      <c r="F682" s="71"/>
     </row>
     <row r="683">
       <c r="D683" s="14"/>
       <c r="E683" s="48"/>
-      <c r="F683" s="68"/>
+      <c r="F683" s="71"/>
     </row>
     <row r="684">
       <c r="D684" s="14"/>
       <c r="E684" s="48"/>
-      <c r="F684" s="68"/>
+      <c r="F684" s="71"/>
     </row>
     <row r="685">
       <c r="D685" s="14"/>
       <c r="E685" s="48"/>
-      <c r="F685" s="68"/>
+      <c r="F685" s="71"/>
     </row>
     <row r="686">
       <c r="D686" s="14"/>
       <c r="E686" s="48"/>
-      <c r="F686" s="68"/>
+      <c r="F686" s="71"/>
     </row>
     <row r="687">
       <c r="D687" s="14"/>
       <c r="E687" s="48"/>
-      <c r="F687" s="68"/>
+      <c r="F687" s="71"/>
     </row>
     <row r="688">
       <c r="D688" s="14"/>
       <c r="E688" s="48"/>
-      <c r="F688" s="68"/>
+      <c r="F688" s="71"/>
     </row>
     <row r="689">
       <c r="D689" s="14"/>
       <c r="E689" s="48"/>
-      <c r="F689" s="68"/>
+      <c r="F689" s="71"/>
     </row>
     <row r="690">
       <c r="D690" s="14"/>
       <c r="E690" s="48"/>
-      <c r="F690" s="68"/>
+      <c r="F690" s="71"/>
     </row>
     <row r="691">
       <c r="D691" s="14"/>
       <c r="E691" s="48"/>
-      <c r="F691" s="68"/>
+      <c r="F691" s="71"/>
     </row>
     <row r="692">
       <c r="D692" s="14"/>
       <c r="E692" s="48"/>
-      <c r="F692" s="68"/>
+      <c r="F692" s="71"/>
     </row>
     <row r="693">
       <c r="D693" s="14"/>
       <c r="E693" s="48"/>
-      <c r="F693" s="68"/>
+      <c r="F693" s="71"/>
     </row>
     <row r="694">
       <c r="D694" s="14"/>
       <c r="E694" s="48"/>
-      <c r="F694" s="68"/>
+      <c r="F694" s="71"/>
     </row>
     <row r="695">
       <c r="D695" s="14"/>
       <c r="E695" s="48"/>
-      <c r="F695" s="68"/>
+      <c r="F695" s="71"/>
     </row>
     <row r="696">
       <c r="D696" s="14"/>
       <c r="E696" s="48"/>
-      <c r="F696" s="68"/>
+      <c r="F696" s="71"/>
     </row>
     <row r="697">
       <c r="D697" s="14"/>
       <c r="E697" s="48"/>
-      <c r="F697" s="68"/>
+      <c r="F697" s="71"/>
     </row>
     <row r="698">
       <c r="D698" s="14"/>
       <c r="E698" s="48"/>
-      <c r="F698" s="68"/>
+      <c r="F698" s="71"/>
     </row>
     <row r="699">
       <c r="D699" s="14"/>
       <c r="E699" s="48"/>
-      <c r="F699" s="68"/>
+      <c r="F699" s="71"/>
     </row>
     <row r="700">
       <c r="D700" s="14"/>
       <c r="E700" s="48"/>
-      <c r="F700" s="68"/>
+      <c r="F700" s="71"/>
     </row>
     <row r="701">
       <c r="D701" s="14"/>
       <c r="E701" s="48"/>
-      <c r="F701" s="68"/>
+      <c r="F701" s="71"/>
     </row>
     <row r="702">
       <c r="D702" s="14"/>
       <c r="E702" s="48"/>
-      <c r="F702" s="68"/>
+      <c r="F702" s="71"/>
     </row>
     <row r="703">
       <c r="D703" s="14"/>
       <c r="E703" s="48"/>
-      <c r="F703" s="68"/>
+      <c r="F703" s="71"/>
     </row>
     <row r="704">
       <c r="D704" s="14"/>
       <c r="E704" s="48"/>
-      <c r="F704" s="68"/>
+      <c r="F704" s="71"/>
     </row>
     <row r="705">
       <c r="D705" s="14"/>
       <c r="E705" s="48"/>
-      <c r="F705" s="68"/>
+      <c r="F705" s="71"/>
     </row>
     <row r="706">
       <c r="D706" s="14"/>
       <c r="E706" s="48"/>
-      <c r="F706" s="68"/>
+      <c r="F706" s="71"/>
     </row>
     <row r="707">
       <c r="D707" s="14"/>
       <c r="E707" s="48"/>
-      <c r="F707" s="68"/>
+      <c r="F707" s="71"/>
     </row>
     <row r="708">
       <c r="D708" s="14"/>
       <c r="E708" s="48"/>
-      <c r="F708" s="68"/>
+      <c r="F708" s="71"/>
     </row>
     <row r="709">
       <c r="D709" s="14"/>
       <c r="E709" s="48"/>
-      <c r="F709" s="68"/>
+      <c r="F709" s="71"/>
     </row>
     <row r="710">
       <c r="D710" s="14"/>
       <c r="E710" s="48"/>
-      <c r="F710" s="68"/>
+      <c r="F710" s="71"/>
     </row>
     <row r="711">
       <c r="D711" s="14"/>
       <c r="E711" s="48"/>
-      <c r="F711" s="68"/>
+      <c r="F711" s="71"/>
     </row>
     <row r="712">
       <c r="D712" s="14"/>
       <c r="E712" s="48"/>
-      <c r="F712" s="68"/>
+      <c r="F712" s="71"/>
     </row>
     <row r="713">
       <c r="D713" s="14"/>
       <c r="E713" s="48"/>
-      <c r="F713" s="68"/>
+      <c r="F713" s="71"/>
     </row>
     <row r="714">
       <c r="D714" s="14"/>
       <c r="E714" s="48"/>
-      <c r="F714" s="68"/>
+      <c r="F714" s="71"/>
     </row>
     <row r="715">
       <c r="D715" s="14"/>
       <c r="E715" s="48"/>
-      <c r="F715" s="68"/>
+      <c r="F715" s="71"/>
     </row>
     <row r="716">
       <c r="D716" s="14"/>
       <c r="E716" s="48"/>
-      <c r="F716" s="68"/>
+      <c r="F716" s="71"/>
     </row>
     <row r="717">
       <c r="D717" s="14"/>
       <c r="E717" s="48"/>
-      <c r="F717" s="68"/>
+      <c r="F717" s="71"/>
     </row>
     <row r="718">
       <c r="D718" s="14"/>
       <c r="E718" s="48"/>
-      <c r="F718" s="68"/>
+      <c r="F718" s="71"/>
     </row>
     <row r="719">
       <c r="D719" s="14"/>
       <c r="E719" s="48"/>
-      <c r="F719" s="68"/>
+      <c r="F719" s="71"/>
     </row>
     <row r="720">
       <c r="D720" s="14"/>
       <c r="E720" s="48"/>
-      <c r="F720" s="68"/>
+      <c r="F720" s="71"/>
     </row>
     <row r="721">
       <c r="D721" s="14"/>
       <c r="E721" s="48"/>
-      <c r="F721" s="68"/>
+      <c r="F721" s="71"/>
     </row>
     <row r="722">
       <c r="D722" s="14"/>
       <c r="E722" s="48"/>
-      <c r="F722" s="68"/>
+      <c r="F722" s="71"/>
     </row>
     <row r="723">
       <c r="D723" s="14"/>
       <c r="E723" s="48"/>
-      <c r="F723" s="68"/>
+      <c r="F723" s="71"/>
     </row>
     <row r="724">
       <c r="D724" s="14"/>
       <c r="E724" s="48"/>
-      <c r="F724" s="68"/>
+      <c r="F724" s="71"/>
     </row>
     <row r="725">
       <c r="D725" s="14"/>
       <c r="E725" s="48"/>
-      <c r="F725" s="68"/>
+      <c r="F725" s="71"/>
     </row>
     <row r="726">
       <c r="D726" s="14"/>
       <c r="E726" s="48"/>
-      <c r="F726" s="68"/>
+      <c r="F726" s="71"/>
     </row>
     <row r="727">
       <c r="D727" s="14"/>
       <c r="E727" s="48"/>
-      <c r="F727" s="68"/>
+      <c r="F727" s="71"/>
     </row>
     <row r="728">
       <c r="D728" s="14"/>
       <c r="E728" s="48"/>
-      <c r="F728" s="68"/>
+      <c r="F728" s="71"/>
     </row>
     <row r="729">
       <c r="D729" s="14"/>
       <c r="E729" s="48"/>
-      <c r="F729" s="68"/>
+      <c r="F729" s="71"/>
     </row>
     <row r="730">
       <c r="D730" s="14"/>
       <c r="E730" s="48"/>
-      <c r="F730" s="68"/>
+      <c r="F730" s="71"/>
     </row>
     <row r="731">
       <c r="D731" s="14"/>
       <c r="E731" s="48"/>
-      <c r="F731" s="68"/>
+      <c r="F731" s="71"/>
     </row>
     <row r="732">
       <c r="D732" s="14"/>
       <c r="E732" s="48"/>
-      <c r="F732" s="68"/>
+      <c r="F732" s="71"/>
     </row>
     <row r="733">
       <c r="D733" s="14"/>
       <c r="E733" s="48"/>
-      <c r="F733" s="68"/>
+      <c r="F733" s="71"/>
     </row>
     <row r="734">
       <c r="D734" s="14"/>
       <c r="E734" s="48"/>
-      <c r="F734" s="68"/>
+      <c r="F734" s="71"/>
     </row>
     <row r="735">
       <c r="D735" s="14"/>
       <c r="E735" s="48"/>
-      <c r="F735" s="68"/>
+      <c r="F735" s="71"/>
     </row>
     <row r="736">
       <c r="D736" s="14"/>
       <c r="E736" s="48"/>
-      <c r="F736" s="68"/>
+      <c r="F736" s="71"/>
     </row>
     <row r="737">
       <c r="D737" s="14"/>
       <c r="E737" s="48"/>
-      <c r="F737" s="68"/>
+      <c r="F737" s="71"/>
     </row>
     <row r="738">
       <c r="D738" s="14"/>
       <c r="E738" s="48"/>
-      <c r="F738" s="68"/>
+      <c r="F738" s="71"/>
     </row>
     <row r="739">
       <c r="D739" s="14"/>
       <c r="E739" s="48"/>
-      <c r="F739" s="68"/>
+      <c r="F739" s="71"/>
     </row>
     <row r="740">
       <c r="D740" s="14"/>
       <c r="E740" s="48"/>
-      <c r="F740" s="68"/>
+      <c r="F740" s="71"/>
     </row>
     <row r="741">
       <c r="D741" s="14"/>
       <c r="E741" s="48"/>
-      <c r="F741" s="68"/>
+      <c r="F741" s="71"/>
     </row>
     <row r="742">
       <c r="D742" s="14"/>
       <c r="E742" s="48"/>
-      <c r="F742" s="68"/>
+      <c r="F742" s="71"/>
     </row>
     <row r="743">
       <c r="D743" s="14"/>
       <c r="E743" s="48"/>
-      <c r="F743" s="68"/>
+      <c r="F743" s="71"/>
     </row>
     <row r="744">
       <c r="D744" s="14"/>
       <c r="E744" s="48"/>
-      <c r="F744" s="68"/>
+      <c r="F744" s="71"/>
     </row>
     <row r="745">
       <c r="D745" s="14"/>
       <c r="E745" s="48"/>
-      <c r="F745" s="68"/>
+      <c r="F745" s="71"/>
     </row>
     <row r="746">
       <c r="D746" s="14"/>
       <c r="E746" s="48"/>
-      <c r="F746" s="68"/>
+      <c r="F746" s="71"/>
     </row>
     <row r="747">
       <c r="D747" s="14"/>
       <c r="E747" s="48"/>
-      <c r="F747" s="68"/>
+      <c r="F747" s="71"/>
     </row>
     <row r="748">
       <c r="D748" s="14"/>
       <c r="E748" s="48"/>
-      <c r="F748" s="68"/>
+      <c r="F748" s="71"/>
     </row>
     <row r="749">
       <c r="D749" s="14"/>
       <c r="E749" s="48"/>
-      <c r="F749" s="68"/>
+      <c r="F749" s="71"/>
     </row>
     <row r="750">
       <c r="D750" s="14"/>
       <c r="E750" s="48"/>
-      <c r="F750" s="68"/>
+      <c r="F750" s="71"/>
     </row>
     <row r="751">
       <c r="D751" s="14"/>
       <c r="E751" s="48"/>
-      <c r="F751" s="68"/>
+      <c r="F751" s="71"/>
     </row>
     <row r="752">
       <c r="D752" s="14"/>
       <c r="E752" s="48"/>
-      <c r="F752" s="68"/>
+      <c r="F752" s="71"/>
     </row>
     <row r="753">
       <c r="D753" s="14"/>
       <c r="E753" s="48"/>
-      <c r="F753" s="68"/>
+      <c r="F753" s="71"/>
     </row>
     <row r="754">
       <c r="D754" s="14"/>
       <c r="E754" s="48"/>
-      <c r="F754" s="68"/>
+      <c r="F754" s="71"/>
     </row>
     <row r="755">
       <c r="D755" s="14"/>
       <c r="E755" s="48"/>
-      <c r="F755" s="68"/>
+      <c r="F755" s="71"/>
     </row>
     <row r="756">
       <c r="D756" s="14"/>
       <c r="E756" s="48"/>
-      <c r="F756" s="68"/>
+      <c r="F756" s="71"/>
     </row>
     <row r="757">
       <c r="D757" s="14"/>
       <c r="E757" s="48"/>
-      <c r="F757" s="68"/>
+      <c r="F757" s="71"/>
     </row>
     <row r="758">
       <c r="D758" s="14"/>
       <c r="E758" s="48"/>
-      <c r="F758" s="68"/>
+      <c r="F758" s="71"/>
     </row>
     <row r="759">
       <c r="D759" s="14"/>
       <c r="E759" s="48"/>
-      <c r="F759" s="68"/>
+      <c r="F759" s="71"/>
     </row>
     <row r="760">
       <c r="D760" s="14"/>
       <c r="E760" s="48"/>
-      <c r="F760" s="68"/>
+      <c r="F760" s="71"/>
     </row>
     <row r="761">
       <c r="D761" s="14"/>
       <c r="E761" s="48"/>
-      <c r="F761" s="68"/>
+      <c r="F761" s="71"/>
     </row>
     <row r="762">
       <c r="D762" s="14"/>
       <c r="E762" s="48"/>
-      <c r="F762" s="68"/>
+      <c r="F762" s="71"/>
     </row>
     <row r="763">
       <c r="D763" s="14"/>
       <c r="E763" s="48"/>
-      <c r="F763" s="68"/>
+      <c r="F763" s="71"/>
     </row>
     <row r="764">
       <c r="D764" s="14"/>
       <c r="E764" s="48"/>
-      <c r="F764" s="68"/>
+      <c r="F764" s="71"/>
     </row>
     <row r="765">
       <c r="D765" s="14"/>
       <c r="E765" s="48"/>
-      <c r="F765" s="68"/>
+      <c r="F765" s="71"/>
     </row>
     <row r="766">
       <c r="D766" s="14"/>
       <c r="E766" s="48"/>
-      <c r="F766" s="68"/>
+      <c r="F766" s="71"/>
     </row>
     <row r="767">
       <c r="D767" s="14"/>
       <c r="E767" s="48"/>
-      <c r="F767" s="68"/>
+      <c r="F767" s="71"/>
     </row>
     <row r="768">
       <c r="D768" s="14"/>
       <c r="E768" s="48"/>
-      <c r="F768" s="68"/>
+      <c r="F768" s="71"/>
     </row>
     <row r="769">
       <c r="D769" s="14"/>
       <c r="E769" s="48"/>
-      <c r="F769" s="68"/>
+      <c r="F769" s="71"/>
     </row>
     <row r="770">
       <c r="D770" s="14"/>
       <c r="E770" s="48"/>
-      <c r="F770" s="68"/>
+      <c r="F770" s="71"/>
     </row>
     <row r="771">
       <c r="D771" s="14"/>
       <c r="E771" s="48"/>
-      <c r="F771" s="68"/>
+      <c r="F771" s="71"/>
     </row>
     <row r="772">
       <c r="D772" s="14"/>
       <c r="E772" s="48"/>
-      <c r="F772" s="68"/>
+      <c r="F772" s="71"/>
     </row>
     <row r="773">
       <c r="D773" s="14"/>
       <c r="E773" s="48"/>
-      <c r="F773" s="68"/>
+      <c r="F773" s="71"/>
     </row>
     <row r="774">
       <c r="D774" s="14"/>
       <c r="E774" s="48"/>
-      <c r="F774" s="68"/>
+      <c r="F774" s="71"/>
     </row>
     <row r="775">
       <c r="D775" s="14"/>
       <c r="E775" s="48"/>
-      <c r="F775" s="68"/>
+      <c r="F775" s="71"/>
     </row>
     <row r="776">
       <c r="D776" s="14"/>
       <c r="E776" s="48"/>
-      <c r="F776" s="68"/>
+      <c r="F776" s="71"/>
     </row>
     <row r="777">
       <c r="D777" s="14"/>
       <c r="E777" s="48"/>
-      <c r="F777" s="68"/>
+      <c r="F777" s="71"/>
     </row>
     <row r="778">
       <c r="D778" s="14"/>
       <c r="E778" s="48"/>
-      <c r="F778" s="68"/>
+      <c r="F778" s="71"/>
     </row>
     <row r="779">
       <c r="D779" s="14"/>
       <c r="E779" s="48"/>
-      <c r="F779" s="68"/>
+      <c r="F779" s="71"/>
     </row>
     <row r="780">
       <c r="D780" s="14"/>
       <c r="E780" s="48"/>
-      <c r="F780" s="68"/>
+      <c r="F780" s="71"/>
     </row>
     <row r="781">
       <c r="D781" s="14"/>
       <c r="E781" s="48"/>
-      <c r="F781" s="68"/>
+      <c r="F781" s="71"/>
     </row>
     <row r="782">
       <c r="D782" s="14"/>
       <c r="E782" s="48"/>
-      <c r="F782" s="68"/>
+      <c r="F782" s="71"/>
     </row>
     <row r="783">
       <c r="D783" s="14"/>
       <c r="E783" s="48"/>
-      <c r="F783" s="68"/>
+      <c r="F783" s="71"/>
     </row>
     <row r="784">
       <c r="D784" s="14"/>
       <c r="E784" s="48"/>
-      <c r="F784" s="68"/>
+      <c r="F784" s="71"/>
     </row>
     <row r="785">
       <c r="D785" s="14"/>
       <c r="E785" s="48"/>
-      <c r="F785" s="68"/>
+      <c r="F785" s="71"/>
     </row>
     <row r="786">
       <c r="D786" s="14"/>
       <c r="E786" s="48"/>
-      <c r="F786" s="68"/>
+      <c r="F786" s="71"/>
     </row>
     <row r="787">
       <c r="D787" s="14"/>
       <c r="E787" s="48"/>
-      <c r="F787" s="68"/>
+      <c r="F787" s="71"/>
     </row>
     <row r="788">
       <c r="D788" s="14"/>
       <c r="E788" s="48"/>
-      <c r="F788" s="68"/>
+      <c r="F788" s="71"/>
     </row>
     <row r="789">
       <c r="D789" s="14"/>
       <c r="E789" s="48"/>
-      <c r="F789" s="68"/>
+      <c r="F789" s="71"/>
     </row>
     <row r="790">
       <c r="D790" s="14"/>
       <c r="E790" s="48"/>
-      <c r="F790" s="68"/>
+      <c r="F790" s="71"/>
     </row>
     <row r="791">
       <c r="D791" s="14"/>
       <c r="E791" s="48"/>
-      <c r="F791" s="68"/>
+      <c r="F791" s="71"/>
     </row>
     <row r="792">
       <c r="D792" s="14"/>
       <c r="E792" s="48"/>
-      <c r="F792" s="68"/>
+      <c r="F792" s="71"/>
     </row>
     <row r="793">
       <c r="D793" s="14"/>
       <c r="E793" s="48"/>
-      <c r="F793" s="68"/>
+      <c r="F793" s="71"/>
     </row>
     <row r="794">
       <c r="D794" s="14"/>
       <c r="E794" s="48"/>
-      <c r="F794" s="68"/>
+      <c r="F794" s="71"/>
     </row>
     <row r="795">
       <c r="D795" s="14"/>
       <c r="E795" s="48"/>
-      <c r="F795" s="68"/>
+      <c r="F795" s="71"/>
     </row>
     <row r="796">
       <c r="D796" s="14"/>
       <c r="E796" s="48"/>
-      <c r="F796" s="68"/>
+      <c r="F796" s="71"/>
     </row>
     <row r="797">
       <c r="D797" s="14"/>
       <c r="E797" s="48"/>
-      <c r="F797" s="68"/>
+      <c r="F797" s="71"/>
     </row>
     <row r="798">
       <c r="D798" s="14"/>
       <c r="E798" s="48"/>
-      <c r="F798" s="68"/>
+      <c r="F798" s="71"/>
     </row>
     <row r="799">
       <c r="D799" s="14"/>
       <c r="E799" s="48"/>
-      <c r="F799" s="68"/>
+      <c r="F799" s="71"/>
     </row>
     <row r="800">
       <c r="D800" s="14"/>
       <c r="E800" s="48"/>
-      <c r="F800" s="68"/>
+      <c r="F800" s="71"/>
     </row>
     <row r="801">
       <c r="D801" s="14"/>
       <c r="E801" s="48"/>
-      <c r="F801" s="68"/>
+      <c r="F801" s="71"/>
     </row>
     <row r="802">
       <c r="D802" s="14"/>
       <c r="E802" s="48"/>
-      <c r="F802" s="68"/>
+      <c r="F802" s="71"/>
     </row>
     <row r="803">
       <c r="D803" s="14"/>
       <c r="E803" s="48"/>
-      <c r="F803" s="68"/>
+      <c r="F803" s="71"/>
     </row>
     <row r="804">
       <c r="D804" s="14"/>
       <c r="E804" s="48"/>
-      <c r="F804" s="68"/>
+      <c r="F804" s="71"/>
     </row>
     <row r="805">
       <c r="D805" s="14"/>
       <c r="E805" s="48"/>
-      <c r="F805" s="68"/>
+      <c r="F805" s="71"/>
     </row>
     <row r="806">
       <c r="D806" s="14"/>
       <c r="E806" s="48"/>
-      <c r="F806" s="68"/>
+      <c r="F806" s="71"/>
     </row>
     <row r="807">
       <c r="D807" s="14"/>
       <c r="E807" s="48"/>
-      <c r="F807" s="68"/>
+      <c r="F807" s="71"/>
     </row>
     <row r="808">
       <c r="D808" s="14"/>
       <c r="E808" s="48"/>
-      <c r="F808" s="68"/>
+      <c r="F808" s="71"/>
     </row>
     <row r="809">
       <c r="D809" s="14"/>
       <c r="E809" s="48"/>
-      <c r="F809" s="68"/>
+      <c r="F809" s="71"/>
     </row>
     <row r="810">
       <c r="D810" s="14"/>
       <c r="E810" s="48"/>
-      <c r="F810" s="68"/>
+      <c r="F810" s="71"/>
     </row>
     <row r="811">
       <c r="D811" s="14"/>
       <c r="E811" s="48"/>
-      <c r="F811" s="68"/>
+      <c r="F811" s="71"/>
     </row>
     <row r="812">
       <c r="D812" s="14"/>
       <c r="E812" s="48"/>
-      <c r="F812" s="68"/>
+      <c r="F812" s="71"/>
     </row>
     <row r="813">
       <c r="D813" s="14"/>
       <c r="E813" s="48"/>
-      <c r="F813" s="68"/>
+      <c r="F813" s="71"/>
     </row>
     <row r="814">
       <c r="D814" s="14"/>
       <c r="E814" s="48"/>
-      <c r="F814" s="68"/>
+      <c r="F814" s="71"/>
     </row>
     <row r="815">
       <c r="D815" s="14"/>
       <c r="E815" s="48"/>
-      <c r="F815" s="68"/>
+      <c r="F815" s="71"/>
     </row>
     <row r="816">
       <c r="D816" s="14"/>
       <c r="E816" s="48"/>
-      <c r="F816" s="68"/>
+      <c r="F816" s="71"/>
     </row>
     <row r="817">
       <c r="D817" s="14"/>
       <c r="E817" s="48"/>
-      <c r="F817" s="68"/>
+      <c r="F817" s="71"/>
     </row>
     <row r="818">
       <c r="D818" s="14"/>
       <c r="E818" s="48"/>
-      <c r="F818" s="68"/>
+      <c r="F818" s="71"/>
     </row>
     <row r="819">
       <c r="D819" s="14"/>
       <c r="E819" s="48"/>
-      <c r="F819" s="68"/>
+      <c r="F819" s="71"/>
     </row>
     <row r="820">
       <c r="D820" s="14"/>
       <c r="E820" s="48"/>
-      <c r="F820" s="68"/>
+      <c r="F820" s="71"/>
     </row>
     <row r="821">
       <c r="D821" s="14"/>
       <c r="E821" s="48"/>
-      <c r="F821" s="68"/>
+      <c r="F821" s="71"/>
     </row>
     <row r="822">
       <c r="D822" s="14"/>
       <c r="E822" s="48"/>
-      <c r="F822" s="68"/>
+      <c r="F822" s="71"/>
     </row>
     <row r="823">
       <c r="D823" s="14"/>
       <c r="E823" s="48"/>
-      <c r="F823" s="68"/>
+      <c r="F823" s="71"/>
     </row>
     <row r="824">
       <c r="D824" s="14"/>
       <c r="E824" s="48"/>
-      <c r="F824" s="68"/>
+      <c r="F824" s="71"/>
     </row>
     <row r="825">
       <c r="D825" s="14"/>
       <c r="E825" s="48"/>
-      <c r="F825" s="68"/>
+      <c r="F825" s="71"/>
     </row>
     <row r="826">
       <c r="D826" s="14"/>
       <c r="E826" s="48"/>
-      <c r="F826" s="68"/>
+      <c r="F826" s="71"/>
     </row>
     <row r="827">
       <c r="D827" s="14"/>
       <c r="E827" s="48"/>
-      <c r="F827" s="68"/>
+      <c r="F827" s="71"/>
     </row>
     <row r="828">
       <c r="D828" s="14"/>
       <c r="E828" s="48"/>
-      <c r="F828" s="68"/>
+      <c r="F828" s="71"/>
     </row>
     <row r="829">
       <c r="D829" s="14"/>
       <c r="E829" s="48"/>
-      <c r="F829" s="68"/>
+      <c r="F829" s="71"/>
     </row>
     <row r="830">
       <c r="D830" s="14"/>
       <c r="E830" s="48"/>
-      <c r="F830" s="68"/>
+      <c r="F830" s="71"/>
     </row>
     <row r="831">
       <c r="D831" s="14"/>
       <c r="E831" s="48"/>
-      <c r="F831" s="68"/>
+      <c r="F831" s="71"/>
     </row>
     <row r="832">
       <c r="D832" s="14"/>
       <c r="E832" s="48"/>
-      <c r="F832" s="68"/>
+      <c r="F832" s="71"/>
     </row>
     <row r="833">
       <c r="D833" s="14"/>
       <c r="E833" s="48"/>
-      <c r="F833" s="68"/>
+      <c r="F833" s="71"/>
     </row>
     <row r="834">
       <c r="D834" s="14"/>
       <c r="E834" s="48"/>
-      <c r="F834" s="68"/>
+      <c r="F834" s="71"/>
     </row>
     <row r="835">
       <c r="D835" s="14"/>
       <c r="E835" s="48"/>
-      <c r="F835" s="68"/>
+      <c r="F835" s="71"/>
     </row>
     <row r="836">
       <c r="D836" s="14"/>
       <c r="E836" s="48"/>
-      <c r="F836" s="68"/>
+      <c r="F836" s="71"/>
     </row>
     <row r="837">
       <c r="D837" s="14"/>
       <c r="E837" s="48"/>
-      <c r="F837" s="68"/>
+      <c r="F837" s="71"/>
     </row>
     <row r="838">
       <c r="D838" s="14"/>
       <c r="E838" s="48"/>
-      <c r="F838" s="68"/>
+      <c r="F838" s="71"/>
     </row>
     <row r="839">
       <c r="D839" s="14"/>
       <c r="E839" s="48"/>
-      <c r="F839" s="68"/>
+      <c r="F839" s="71"/>
     </row>
     <row r="840">
       <c r="D840" s="14"/>
       <c r="E840" s="48"/>
-      <c r="F840" s="68"/>
+      <c r="F840" s="71"/>
     </row>
     <row r="841">
       <c r="D841" s="14"/>
       <c r="E841" s="48"/>
-      <c r="F841" s="68"/>
+      <c r="F841" s="71"/>
     </row>
     <row r="842">
       <c r="D842" s="14"/>
       <c r="E842" s="48"/>
-      <c r="F842" s="68"/>
+      <c r="F842" s="71"/>
     </row>
     <row r="843">
       <c r="D843" s="14"/>
       <c r="E843" s="48"/>
-      <c r="F843" s="68"/>
+      <c r="F843" s="71"/>
     </row>
     <row r="844">
       <c r="D844" s="14"/>
       <c r="E844" s="48"/>
-      <c r="F844" s="68"/>
+      <c r="F844" s="71"/>
     </row>
     <row r="845">
       <c r="D845" s="14"/>
       <c r="E845" s="48"/>
-      <c r="F845" s="68"/>
+      <c r="F845" s="71"/>
     </row>
     <row r="846">
       <c r="D846" s="14"/>
       <c r="E846" s="48"/>
-      <c r="F846" s="68"/>
+      <c r="F846" s="71"/>
     </row>
     <row r="847">
       <c r="D847" s="14"/>
       <c r="E847" s="48"/>
-      <c r="F847" s="68"/>
+      <c r="F847" s="71"/>
     </row>
     <row r="848">
       <c r="D848" s="14"/>
       <c r="E848" s="48"/>
-      <c r="F848" s="68"/>
+      <c r="F848" s="71"/>
     </row>
     <row r="849">
       <c r="D849" s="14"/>
       <c r="E849" s="48"/>
-      <c r="F849" s="68"/>
+      <c r="F849" s="71"/>
     </row>
     <row r="850">
       <c r="D850" s="14"/>
       <c r="E850" s="48"/>
-      <c r="F850" s="68"/>
+      <c r="F850" s="71"/>
     </row>
     <row r="851">
       <c r="D851" s="14"/>
       <c r="E851" s="48"/>
-      <c r="F851" s="68"/>
+      <c r="F851" s="71"/>
     </row>
     <row r="852">
       <c r="D852" s="14"/>
       <c r="E852" s="48"/>
-      <c r="F852" s="68"/>
+      <c r="F852" s="71"/>
     </row>
     <row r="853">
       <c r="D853" s="14"/>
       <c r="E853" s="48"/>
-      <c r="F853" s="68"/>
+      <c r="F853" s="71"/>
     </row>
     <row r="854">
       <c r="D854" s="14"/>
       <c r="E854" s="48"/>
-      <c r="F854" s="68"/>
+      <c r="F854" s="71"/>
     </row>
     <row r="855">
       <c r="D855" s="14"/>
       <c r="E855" s="48"/>
-      <c r="F855" s="68"/>
+      <c r="F855" s="71"/>
     </row>
     <row r="856">
       <c r="D856" s="14"/>
       <c r="E856" s="48"/>
-      <c r="F856" s="68"/>
+      <c r="F856" s="71"/>
     </row>
     <row r="857">
       <c r="D857" s="14"/>
       <c r="E857" s="48"/>
-      <c r="F857" s="68"/>
+      <c r="F857" s="71"/>
     </row>
     <row r="858">
       <c r="D858" s="14"/>
       <c r="E858" s="48"/>
-      <c r="F858" s="68"/>
+      <c r="F858" s="71"/>
     </row>
     <row r="859">
       <c r="D859" s="14"/>
       <c r="E859" s="48"/>
-      <c r="F859" s="68"/>
+      <c r="F859" s="71"/>
     </row>
     <row r="860">
       <c r="D860" s="14"/>
       <c r="E860" s="48"/>
-      <c r="F860" s="68"/>
+      <c r="F860" s="71"/>
     </row>
     <row r="861">
       <c r="D861" s="14"/>
       <c r="E861" s="48"/>
-      <c r="F861" s="68"/>
+      <c r="F861" s="71"/>
     </row>
     <row r="862">
       <c r="D862" s="14"/>
       <c r="E862" s="48"/>
-      <c r="F862" s="68"/>
+      <c r="F862" s="71"/>
     </row>
     <row r="863">
       <c r="D863" s="14"/>
       <c r="E863" s="48"/>
-      <c r="F863" s="68"/>
+      <c r="F863" s="71"/>
     </row>
     <row r="864">
       <c r="D864" s="14"/>
       <c r="E864" s="48"/>
-      <c r="F864" s="68"/>
+      <c r="F864" s="71"/>
     </row>
     <row r="865">
       <c r="D865" s="14"/>
       <c r="E865" s="48"/>
-      <c r="F865" s="68"/>
+      <c r="F865" s="71"/>
     </row>
     <row r="866">
       <c r="D866" s="14"/>
       <c r="E866" s="48"/>
-      <c r="F866" s="68"/>
+      <c r="F866" s="71"/>
     </row>
     <row r="867">
       <c r="D867" s="14"/>
       <c r="E867" s="48"/>
-      <c r="F867" s="68"/>
+      <c r="F867" s="71"/>
     </row>
     <row r="868">
       <c r="D868" s="14"/>
       <c r="E868" s="48"/>
-      <c r="F868" s="68"/>
+      <c r="F868" s="71"/>
     </row>
     <row r="869">
       <c r="D869" s="14"/>
       <c r="E869" s="48"/>
-      <c r="F869" s="68"/>
+      <c r="F869" s="71"/>
     </row>
     <row r="870">
       <c r="D870" s="14"/>
       <c r="E870" s="48"/>
-      <c r="F870" s="68"/>
+      <c r="F870" s="71"/>
     </row>
     <row r="871">
       <c r="D871" s="14"/>
       <c r="E871" s="48"/>
-      <c r="F871" s="68"/>
+      <c r="F871" s="71"/>
     </row>
     <row r="872">
       <c r="D872" s="14"/>
       <c r="E872" s="48"/>
-      <c r="F872" s="68"/>
+      <c r="F872" s="71"/>
     </row>
     <row r="873">
       <c r="D873" s="14"/>
       <c r="E873" s="48"/>
-      <c r="F873" s="68"/>
+      <c r="F873" s="71"/>
     </row>
     <row r="874">
       <c r="D874" s="14"/>
       <c r="E874" s="48"/>
-      <c r="F874" s="68"/>
+      <c r="F874" s="71"/>
     </row>
     <row r="875">
       <c r="D875" s="14"/>
       <c r="E875" s="48"/>
-      <c r="F875" s="68"/>
+      <c r="F875" s="71"/>
     </row>
     <row r="876">
       <c r="D876" s="14"/>
       <c r="E876" s="48"/>
-      <c r="F876" s="68"/>
+      <c r="F876" s="71"/>
     </row>
     <row r="877">
       <c r="D877" s="14"/>
       <c r="E877" s="48"/>
-      <c r="F877" s="68"/>
+      <c r="F877" s="71"/>
     </row>
     <row r="878">
       <c r="D878" s="14"/>
       <c r="E878" s="48"/>
-      <c r="F878" s="68"/>
+      <c r="F878" s="71"/>
     </row>
     <row r="879">
       <c r="D879" s="14"/>
       <c r="E879" s="48"/>
-      <c r="F879" s="68"/>
+      <c r="F879" s="71"/>
     </row>
     <row r="880">
       <c r="D880" s="14"/>
       <c r="E880" s="48"/>
-      <c r="F880" s="68"/>
+      <c r="F880" s="71"/>
     </row>
     <row r="881">
       <c r="D881" s="14"/>
       <c r="E881" s="48"/>
-      <c r="F881" s="68"/>
+      <c r="F881" s="71"/>
     </row>
     <row r="882">
       <c r="D882" s="14"/>
       <c r="E882" s="48"/>
-      <c r="F882" s="68"/>
+      <c r="F882" s="71"/>
     </row>
     <row r="883">
       <c r="D883" s="14"/>
       <c r="E883" s="48"/>
-      <c r="F883" s="68"/>
+      <c r="F883" s="71"/>
     </row>
     <row r="884">
       <c r="D884" s="14"/>
       <c r="E884" s="48"/>
-      <c r="F884" s="68"/>
+      <c r="F884" s="71"/>
     </row>
     <row r="885">
       <c r="D885" s="14"/>
       <c r="E885" s="48"/>
-      <c r="F885" s="68"/>
+      <c r="F885" s="71"/>
     </row>
     <row r="886">
       <c r="D886" s="14"/>
       <c r="E886" s="48"/>
-      <c r="F886" s="68"/>
+      <c r="F886" s="71"/>
     </row>
     <row r="887">
       <c r="D887" s="14"/>
       <c r="E887" s="48"/>
-      <c r="F887" s="68"/>
+      <c r="F887" s="71"/>
     </row>
     <row r="888">
       <c r="D888" s="14"/>
       <c r="E888" s="48"/>
-      <c r="F888" s="68"/>
+      <c r="F888" s="71"/>
     </row>
     <row r="889">
       <c r="D889" s="14"/>
       <c r="E889" s="48"/>
-      <c r="F889" s="68"/>
+      <c r="F889" s="71"/>
     </row>
     <row r="890">
       <c r="D890" s="14"/>
       <c r="E890" s="48"/>
-      <c r="F890" s="68"/>
+      <c r="F890" s="71"/>
     </row>
     <row r="891">
       <c r="D891" s="14"/>
       <c r="E891" s="48"/>
-      <c r="F891" s="68"/>
+      <c r="F891" s="71"/>
     </row>
     <row r="892">
       <c r="D892" s="14"/>
       <c r="E892" s="48"/>
-      <c r="F892" s="68"/>
+      <c r="F892" s="71"/>
     </row>
     <row r="893">
       <c r="D893" s="14"/>
       <c r="E893" s="48"/>
-      <c r="F893" s="68"/>
+      <c r="F893" s="71"/>
     </row>
     <row r="894">
       <c r="D894" s="14"/>
       <c r="E894" s="48"/>
-      <c r="F894" s="68"/>
+      <c r="F894" s="71"/>
     </row>
     <row r="895">
       <c r="D895" s="14"/>
       <c r="E895" s="48"/>
-      <c r="F895" s="68"/>
+      <c r="F895" s="71"/>
     </row>
     <row r="896">
       <c r="D896" s="14"/>
       <c r="E896" s="48"/>
-      <c r="F896" s="68"/>
+      <c r="F896" s="71"/>
     </row>
     <row r="897">
       <c r="D897" s="14"/>
       <c r="E897" s="48"/>
-      <c r="F897" s="68"/>
+      <c r="F897" s="71"/>
     </row>
     <row r="898">
       <c r="D898" s="14"/>
       <c r="E898" s="48"/>
-      <c r="F898" s="68"/>
+      <c r="F898" s="71"/>
     </row>
     <row r="899">
       <c r="D899" s="14"/>
       <c r="E899" s="48"/>
-      <c r="F899" s="68"/>
+      <c r="F899" s="71"/>
     </row>
     <row r="900">
       <c r="D900" s="14"/>
       <c r="E900" s="48"/>
-      <c r="F900" s="68"/>
+      <c r="F900" s="71"/>
     </row>
     <row r="901">
       <c r="D901" s="14"/>
       <c r="E901" s="48"/>
-      <c r="F901" s="68"/>
+      <c r="F901" s="71"/>
     </row>
     <row r="902">
       <c r="D902" s="14"/>
       <c r="E902" s="48"/>
-      <c r="F902" s="68"/>
+      <c r="F902" s="71"/>
     </row>
     <row r="903">
       <c r="D903" s="14"/>
       <c r="E903" s="48"/>
-      <c r="F903" s="68"/>
+      <c r="F903" s="71"/>
     </row>
     <row r="904">
       <c r="D904" s="14"/>
       <c r="E904" s="48"/>
-      <c r="F904" s="68"/>
+      <c r="F904" s="71"/>
     </row>
     <row r="905">
       <c r="D905" s="14"/>
       <c r="E905" s="48"/>
-      <c r="F905" s="68"/>
+      <c r="F905" s="71"/>
     </row>
     <row r="906">
       <c r="D906" s="14"/>
       <c r="E906" s="48"/>
-      <c r="F906" s="68"/>
+      <c r="F906" s="71"/>
     </row>
     <row r="907">
       <c r="D907" s="14"/>
       <c r="E907" s="48"/>
-      <c r="F907" s="68"/>
+      <c r="F907" s="71"/>
     </row>
     <row r="908">
       <c r="D908" s="14"/>
       <c r="E908" s="48"/>
-      <c r="F908" s="68"/>
+      <c r="F908" s="71"/>
     </row>
     <row r="909">
       <c r="D909" s="14"/>
       <c r="E909" s="48"/>
-      <c r="F909" s="68"/>
+      <c r="F909" s="71"/>
     </row>
     <row r="910">
       <c r="D910" s="14"/>
       <c r="E910" s="48"/>
-      <c r="F910" s="68"/>
+      <c r="F910" s="71"/>
     </row>
     <row r="911">
       <c r="D911" s="14"/>
       <c r="E911" s="48"/>
-      <c r="F911" s="68"/>
+      <c r="F911" s="71"/>
     </row>
     <row r="912">
       <c r="D912" s="14"/>
       <c r="E912" s="48"/>
-      <c r="F912" s="68"/>
+      <c r="F912" s="71"/>
     </row>
     <row r="913">
       <c r="D913" s="14"/>
       <c r="E913" s="48"/>
-      <c r="F913" s="68"/>
+      <c r="F913" s="71"/>
     </row>
     <row r="914">
       <c r="D914" s="14"/>
       <c r="E914" s="48"/>
-      <c r="F914" s="68"/>
+      <c r="F914" s="71"/>
     </row>
     <row r="915">
       <c r="D915" s="14"/>
       <c r="E915" s="48"/>
-      <c r="F915" s="68"/>
+      <c r="F915" s="71"/>
     </row>
     <row r="916">
       <c r="D916" s="14"/>
       <c r="E916" s="48"/>
-      <c r="F916" s="68"/>
+      <c r="F916" s="71"/>
     </row>
     <row r="917">
       <c r="D917" s="14"/>
       <c r="E917" s="48"/>
-      <c r="F917" s="68"/>
+      <c r="F917" s="71"/>
     </row>
     <row r="918">
       <c r="D918" s="14"/>
       <c r="E918" s="48"/>
-      <c r="F918" s="68"/>
+      <c r="F918" s="71"/>
     </row>
     <row r="919">
       <c r="D919" s="14"/>
       <c r="E919" s="48"/>
-      <c r="F919" s="68"/>
+      <c r="F919" s="71"/>
     </row>
     <row r="920">
       <c r="D920" s="14"/>
       <c r="E920" s="48"/>
-      <c r="F920" s="68"/>
+      <c r="F920" s="71"/>
     </row>
     <row r="921">
       <c r="D921" s="14"/>
       <c r="E921" s="48"/>
-      <c r="F921" s="68"/>
+      <c r="F921" s="71"/>
     </row>
     <row r="922">
       <c r="D922" s="14"/>
       <c r="E922" s="48"/>
-      <c r="F922" s="68"/>
+      <c r="F922" s="71"/>
     </row>
     <row r="923">
       <c r="D923" s="14"/>
       <c r="E923" s="48"/>
-      <c r="F923" s="68"/>
+      <c r="F923" s="71"/>
     </row>
     <row r="924">
       <c r="D924" s="14"/>
       <c r="E924" s="48"/>
-      <c r="F924" s="68"/>
+      <c r="F924" s="71"/>
     </row>
     <row r="925">
       <c r="D925" s="14"/>
       <c r="E925" s="48"/>
-      <c r="F925" s="68"/>
+      <c r="F925" s="71"/>
     </row>
     <row r="926">
       <c r="D926" s="14"/>
       <c r="E926" s="48"/>
-      <c r="F926" s="68"/>
+      <c r="F926" s="71"/>
     </row>
     <row r="927">
       <c r="D927" s="14"/>
       <c r="E927" s="48"/>
-      <c r="F927" s="68"/>
+      <c r="F927" s="71"/>
     </row>
     <row r="928">
       <c r="D928" s="14"/>
       <c r="E928" s="48"/>
-      <c r="F928" s="68"/>
+      <c r="F928" s="71"/>
     </row>
     <row r="929">
       <c r="D929" s="14"/>
       <c r="E929" s="48"/>
-      <c r="F929" s="68"/>
+      <c r="F929" s="71"/>
     </row>
     <row r="930">
       <c r="D930" s="14"/>
       <c r="E930" s="48"/>
-      <c r="F930" s="68"/>
+      <c r="F930" s="71"/>
     </row>
     <row r="931">
       <c r="D931" s="14"/>
       <c r="E931" s="48"/>
-      <c r="F931" s="68"/>
+      <c r="F931" s="71"/>
     </row>
     <row r="932">
       <c r="D932" s="14"/>
       <c r="E932" s="48"/>
-      <c r="F932" s="68"/>
+      <c r="F932" s="71"/>
     </row>
     <row r="933">
       <c r="D933" s="14"/>
       <c r="E933" s="48"/>
-      <c r="F933" s="68"/>
+      <c r="F933" s="71"/>
     </row>
     <row r="934">
       <c r="D934" s="14"/>
       <c r="E934" s="48"/>
-      <c r="F934" s="68"/>
+      <c r="F934" s="71"/>
     </row>
     <row r="935">
       <c r="D935" s="14"/>
       <c r="E935" s="48"/>
-      <c r="F935" s="68"/>
+      <c r="F935" s="71"/>
     </row>
     <row r="936">
       <c r="D936" s="14"/>
       <c r="E936" s="48"/>
-      <c r="F936" s="68"/>
+      <c r="F936" s="71"/>
     </row>
     <row r="937">
       <c r="D937" s="14"/>
       <c r="E937" s="48"/>
-      <c r="F937" s="68"/>
+      <c r="F937" s="71"/>
     </row>
     <row r="938">
       <c r="D938" s="14"/>
       <c r="E938" s="48"/>
-      <c r="F938" s="68"/>
+      <c r="F938" s="71"/>
     </row>
     <row r="939">
       <c r="D939" s="14"/>
       <c r="E939" s="48"/>
-      <c r="F939" s="68"/>
+      <c r="F939" s="71"/>
     </row>
     <row r="940">
       <c r="D940" s="14"/>
       <c r="E940" s="48"/>
-      <c r="F940" s="68"/>
+      <c r="F940" s="71"/>
     </row>
     <row r="941">
       <c r="D941" s="14"/>
       <c r="E941" s="48"/>
-      <c r="F941" s="68"/>
+      <c r="F941" s="71"/>
     </row>
     <row r="942">
       <c r="D942" s="14"/>
       <c r="E942" s="48"/>
-      <c r="F942" s="68"/>
+      <c r="F942" s="71"/>
     </row>
     <row r="943">
       <c r="D943" s="14"/>
       <c r="E943" s="48"/>
-      <c r="F943" s="68"/>
+      <c r="F943" s="71"/>
     </row>
     <row r="944">
       <c r="D944" s="14"/>
       <c r="E944" s="48"/>
-      <c r="F944" s="68"/>
+      <c r="F944" s="71"/>
     </row>
     <row r="945">
       <c r="D945" s="14"/>
       <c r="E945" s="48"/>
-      <c r="F945" s="68"/>
+      <c r="F945" s="71"/>
     </row>
     <row r="946">
       <c r="D946" s="14"/>
       <c r="E946" s="48"/>
-      <c r="F946" s="68"/>
+      <c r="F946" s="71"/>
     </row>
     <row r="947">
       <c r="D947" s="14"/>
       <c r="E947" s="48"/>
-      <c r="F947" s="68"/>
+      <c r="F947" s="71"/>
     </row>
     <row r="948">
       <c r="D948" s="14"/>
       <c r="E948" s="48"/>
-      <c r="F948" s="68"/>
+      <c r="F948" s="71"/>
     </row>
     <row r="949">
       <c r="D949" s="14"/>
       <c r="E949" s="48"/>
-      <c r="F949" s="68"/>
+      <c r="F949" s="71"/>
     </row>
     <row r="950">
       <c r="D950" s="14"/>
       <c r="E950" s="48"/>
-      <c r="F950" s="68"/>
+      <c r="F950" s="71"/>
     </row>
     <row r="951">
       <c r="D951" s="14"/>
       <c r="E951" s="48"/>
-      <c r="F951" s="68"/>
+      <c r="F951" s="71"/>
     </row>
     <row r="952">
       <c r="D952" s="14"/>
       <c r="E952" s="48"/>
-      <c r="F952" s="68"/>
+      <c r="F952" s="71"/>
     </row>
     <row r="953">
       <c r="D953" s="14"/>
       <c r="E953" s="48"/>
-      <c r="F953" s="68"/>
+      <c r="F953" s="71"/>
     </row>
     <row r="954">
       <c r="D954" s="14"/>
       <c r="E954" s="48"/>
-      <c r="F954" s="68"/>
+      <c r="F954" s="71"/>
     </row>
     <row r="955">
       <c r="D955" s="14"/>
       <c r="E955" s="48"/>
-      <c r="F955" s="68"/>
+      <c r="F955" s="71"/>
     </row>
     <row r="956">
       <c r="D956" s="14"/>
       <c r="E956" s="48"/>
-      <c r="F956" s="68"/>
+      <c r="F956" s="71"/>
     </row>
     <row r="957">
       <c r="D957" s="14"/>
       <c r="E957" s="48"/>
-      <c r="F957" s="68"/>
+      <c r="F957" s="71"/>
     </row>
     <row r="958">
       <c r="D958" s="14"/>
       <c r="E958" s="48"/>
-      <c r="F958" s="68"/>
+      <c r="F958" s="71"/>
     </row>
     <row r="959">
       <c r="D959" s="14"/>
       <c r="E959" s="48"/>
-      <c r="F959" s="68"/>
+      <c r="F959" s="71"/>
     </row>
     <row r="960">
       <c r="D960" s="14"/>
       <c r="E960" s="48"/>
-      <c r="F960" s="68"/>
+      <c r="F960" s="71"/>
     </row>
     <row r="961">
       <c r="D961" s="14"/>
       <c r="E961" s="48"/>
-      <c r="F961" s="68"/>
+      <c r="F961" s="71"/>
     </row>
     <row r="962">
       <c r="D962" s="14"/>
       <c r="E962" s="48"/>
-      <c r="F962" s="68"/>
+      <c r="F962" s="71"/>
     </row>
     <row r="963">
       <c r="D963" s="14"/>
       <c r="E963" s="48"/>
-      <c r="F963" s="68"/>
+      <c r="F963" s="71"/>
     </row>
     <row r="964">
       <c r="D964" s="14"/>
       <c r="E964" s="48"/>
-      <c r="F964" s="68"/>
+      <c r="F964" s="71"/>
     </row>
     <row r="965">
       <c r="D965" s="14"/>
       <c r="E965" s="48"/>
-      <c r="F965" s="68"/>
+      <c r="F965" s="71"/>
     </row>
     <row r="966">
       <c r="D966" s="14"/>
       <c r="E966" s="48"/>
-      <c r="F966" s="68"/>
+      <c r="F966" s="71"/>
     </row>
     <row r="967">
       <c r="D967" s="14"/>
       <c r="E967" s="48"/>
-      <c r="F967" s="68"/>
+      <c r="F967" s="71"/>
     </row>
     <row r="968">
       <c r="D968" s="14"/>
       <c r="E968" s="48"/>
-      <c r="F968" s="68"/>
+      <c r="F968" s="71"/>
     </row>
     <row r="969">
       <c r="D969" s="14"/>
       <c r="E969" s="48"/>
-      <c r="F969" s="68"/>
+      <c r="F969" s="71"/>
     </row>
     <row r="970">
       <c r="D970" s="14"/>
       <c r="E970" s="48"/>
-      <c r="F970" s="68"/>
+      <c r="F970" s="71"/>
     </row>
     <row r="971">
       <c r="D971" s="14"/>
       <c r="E971" s="48"/>
-      <c r="F971" s="68"/>
+      <c r="F971" s="71"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="14"/>
+      <c r="E972" s="48"/>
+      <c r="F972" s="71"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="14"/>
+      <c r="E973" s="48"/>
+      <c r="F973" s="71"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="14"/>
+      <c r="E974" s="48"/>
+      <c r="F974" s="71"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="14"/>
+      <c r="E975" s="48"/>
+      <c r="F975" s="71"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="14"/>
+      <c r="E976" s="48"/>
+      <c r="F976" s="71"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="14"/>
+      <c r="E977" s="48"/>
+      <c r="F977" s="71"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="14"/>
+      <c r="E978" s="48"/>
+      <c r="F978" s="71"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="14"/>
+      <c r="E979" s="48"/>
+      <c r="F979" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B88"/>
+  <mergeCells count="61">
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A13:A40"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A33:A50"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="A51:A88"/>
-    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C68"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F13:F17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C61:C70"/>
-    <mergeCell ref="C71:C80"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F61:F70"/>
-    <mergeCell ref="F71:F80"/>
-    <mergeCell ref="F81:F88"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A41:A58"/>
+    <mergeCell ref="A59:A96"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F59:F68"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="F79:F88"/>
+    <mergeCell ref="F89:F96"/>
     <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6840,39 +7045,39 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="69" t="s">
-        <v>98</v>
+      <c r="D1" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="71"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3">
       <c r="A3" s="19"/>
-      <c r="B3" s="72" t="s">
-        <v>99</v>
+      <c r="B3" s="75" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="75"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
@@ -6883,7 +7088,7 @@
       <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="79" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="28"/>
@@ -6901,7 +7106,7 @@
       <c r="D5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="23"/>
@@ -6917,7 +7122,7 @@
       <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="28"/>
@@ -6931,7 +7136,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="77"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="28"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6941,7 +7146,7 @@
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="77"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="28"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6950,550 +7155,719 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="70"/>
+      <c r="C10" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="73"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
-      <c r="B12" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="82" t="s">
+      <c r="B12" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="84" t="s">
-        <v>108</v>
+      <c r="H12" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="92"/>
+      <c r="E13" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" ht="27.75" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="97"/>
+      <c r="E14" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="100"/>
     </row>
     <row r="15">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="95"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="100"/>
+    </row>
+    <row r="17" ht="79.5" customHeight="1">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="95"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="100"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="J22" s="87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="95"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="110"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="113"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="110"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="113"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="48"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1"/>
+      <c r="C29" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="F31" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="90" t="s">
+    </row>
+    <row r="32">
+      <c r="B32" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="113"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="98"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="95"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="91" t="s">
+    </row>
+    <row r="39">
+      <c r="B39" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="113"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="95"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="92"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="I45" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="95" t="s">
+      <c r="J45" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="97"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="1"/>
-      <c r="C18" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="87" t="s">
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" ht="78.0" customHeight="1">
+      <c r="B46" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="123"/>
+    </row>
+    <row r="47" ht="94.5" customHeight="1">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="92"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="106"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="106"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="1"/>
-      <c r="C26" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="111" t="s">
+      <c r="H47" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="108"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="95"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="92"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="J35" s="84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="111" t="s">
+      <c r="J47" s="124"/>
+      <c r="K47" s="58"/>
+    </row>
+    <row r="48" ht="96.0" customHeight="1">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="108"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="92"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
+  <mergeCells count="19">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7501,6 +7875,18 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="J46:K48"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
